--- a/output/fit_clients/fit_round_82.xlsx
+++ b/output/fit_clients/fit_round_82.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,24 +441,24 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>splitLayer</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>dataSize</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>frequency</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>computation</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>transPower</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>updateTime</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
           <t>isSelected</t>
@@ -466,37 +466,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
           <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>sigma</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_mu</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_U</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_omega</t>
         </is>
       </c>
     </row>
@@ -510,40 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>537</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>3774986777.133273</v>
+        <v>502</v>
       </c>
       <c r="E2" t="n">
-        <v>0.002328856375017683</v>
+        <v>8198582408.800313</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3726138694102082</v>
+        <v>0.00343986432416957</v>
       </c>
       <c r="G2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="I2" t="n">
-        <v>16</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.5485665990234095</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="L2" t="n">
-        <v>2.910882611820959</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.9491991238849824</v>
-      </c>
-      <c r="N2" t="n">
-        <v>-2.910882611820959</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3">
@@ -556,40 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>506</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>6614434859.423958</v>
+        <v>542</v>
       </c>
       <c r="E3" t="n">
-        <v>0.001601023866104471</v>
+        <v>4428017376.32458</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2003816453210076</v>
+        <v>0.00380615315133532</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="I3" t="n">
-        <v>19</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.5485665990234095</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="L3" t="n">
-        <v>2.364587573167268</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.8950518230385152</v>
-      </c>
-      <c r="N3" t="n">
-        <v>-2.364587573167268</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
@@ -602,40 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>517</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>7057299520.002787</v>
+        <v>534</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00475458632877329</v>
+        <v>5294034332.570763</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1918899185391901</v>
+        <v>0.002666818362059296</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="I4" t="n">
-        <v>14</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.5485665990234095</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="L4" t="n">
-        <v>2.711483404579581</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.9405031073187743</v>
-      </c>
-      <c r="N4" t="n">
-        <v>-2.711483404579581</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5">
@@ -648,40 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>457</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>4388248950.685743</v>
+        <v>494</v>
       </c>
       <c r="E5" t="n">
-        <v>0.004468194274220615</v>
+        <v>3560580692.158643</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2727879032052039</v>
+        <v>0.004282143115725477</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="I5" t="n">
-        <v>19</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.5485665990234095</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.3040632100546479</v>
-      </c>
-      <c r="L5" t="n">
-        <v>2.511003270678589</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.8373178056685587</v>
-      </c>
-      <c r="N5" t="n">
-        <v>-2.511003270678589</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -694,40 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>503</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>5158759218.929073</v>
+        <v>469</v>
       </c>
       <c r="E6" t="n">
-        <v>0.002674626227876958</v>
+        <v>7482650826.861731</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2554011757644149</v>
+        <v>0.001825014674530193</v>
       </c>
       <c r="G6" t="b">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2689047872874635</v>
-      </c>
-      <c r="I6" t="n">
-        <v>23</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.5485665990234095</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.2689047872874636</v>
-      </c>
-      <c r="L6" t="n">
-        <v>2.27477773172868</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.8638366797307019</v>
-      </c>
-      <c r="N6" t="n">
-        <v>-2.27477773172868</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7">
@@ -740,40 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>512</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>6782530685.600801</v>
+        <v>539</v>
       </c>
       <c r="E7" t="n">
-        <v>0.004046256931989904</v>
+        <v>8688345860.456835</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1977326372952785</v>
+        <v>0.001174934506252844</v>
       </c>
       <c r="G7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1522908435324719</v>
-      </c>
-      <c r="I7" t="n">
-        <v>18</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.5485665990234095</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.1522908435324718</v>
-      </c>
-      <c r="L7" t="n">
-        <v>2.419706212436376</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.9086032278276613</v>
-      </c>
-      <c r="N7" t="n">
-        <v>-2.419706212436376</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8">
@@ -786,40 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>507</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>7911290988.484811</v>
+        <v>513</v>
       </c>
       <c r="E8" t="n">
-        <v>0.001124098464773324</v>
+        <v>5905211870.209016</v>
       </c>
       <c r="F8" t="n">
-        <v>0.167865236145782</v>
+        <v>0.003036900303640761</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.09189473275502938</v>
-      </c>
-      <c r="I8" t="n">
-        <v>10</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.5485665990234095</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.09189473275502937</v>
-      </c>
-      <c r="L8" t="n">
-        <v>3.133951671613165</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.9554658653118143</v>
-      </c>
-      <c r="N8" t="n">
-        <v>-3.133951671613165</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9">
@@ -832,40 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>467</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
-        <v>8275485145.129385</v>
+        <v>569</v>
       </c>
       <c r="E9" t="n">
-        <v>0.001160298933765199</v>
+        <v>6499614107.84545</v>
       </c>
       <c r="F9" t="n">
-        <v>0.147816727182449</v>
+        <v>0.005424017732677043</v>
       </c>
       <c r="G9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.05135381115923064</v>
-      </c>
-      <c r="I9" t="n">
-        <v>13</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.5485665990234095</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.05135381115923065</v>
-      </c>
-      <c r="L9" t="n">
-        <v>2.719414244573352</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.8914501681541268</v>
-      </c>
-      <c r="N9" t="n">
-        <v>-2.719414244573352</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10">
@@ -878,40 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>532</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>7013801834.255452</v>
+        <v>529</v>
       </c>
       <c r="E10" t="n">
-        <v>0.002857293985944274</v>
+        <v>3050761335.722243</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1986819007623029</v>
+        <v>0.003745610773528993</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="I10" t="n">
-        <v>17</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.5485665990234095</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="L10" t="n">
-        <v>2.487361554749408</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.9373249561279439</v>
-      </c>
-      <c r="N10" t="n">
-        <v>-2.487361554749408</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -924,40 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>413</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>5818186551.41062</v>
+        <v>582</v>
       </c>
       <c r="E11" t="n">
-        <v>0.002615823055307827</v>
+        <v>3993784808.350873</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1859356107682239</v>
+        <v>0.0009924839191909915</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1284355868462225</v>
-      </c>
-      <c r="I11" t="n">
-        <v>19</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.5485665990234095</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.1284355868462225</v>
-      </c>
-      <c r="L11" t="n">
-        <v>2.335375647470164</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.7818505169833926</v>
-      </c>
-      <c r="N11" t="n">
-        <v>-2.335375647470164</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -970,40 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>555</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
-        <v>5619512611.38813</v>
+        <v>537</v>
       </c>
       <c r="E12" t="n">
-        <v>0.00268072866557397</v>
+        <v>5893142751.317295</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2586988499774703</v>
+        <v>0.001498440604291006</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="I12" t="n">
-        <v>15</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.5485665990234095</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="L12" t="n">
-        <v>2.759402240667804</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0.9746357842622065</v>
-      </c>
-      <c r="N12" t="n">
-        <v>-2.759402240667804</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13">
@@ -1016,40 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>623</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>8265963767.339729</v>
+        <v>480</v>
       </c>
       <c r="E13" t="n">
-        <v>0.002623951272544145</v>
+        <v>4955161854.063277</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1974216214747812</v>
+        <v>0.003765328889135538</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="I13" t="n">
-        <v>19</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.5454758873532033</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="L13" t="n">
-        <v>2.358601986164711</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.016252147526939</v>
-      </c>
-      <c r="N13" t="n">
-        <v>-2.358601986164711</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14">
@@ -1062,40 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>472</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
-        <v>5928203131.174623</v>
+        <v>486</v>
       </c>
       <c r="E14" t="n">
-        <v>0.001542642043342661</v>
+        <v>5891324553.879539</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2085542706015587</v>
+        <v>0.002324491834240256</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1741737171272498</v>
-      </c>
-      <c r="I14" t="n">
-        <v>13</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.5485665990234095</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.1741737171272497</v>
-      </c>
-      <c r="L14" t="n">
-        <v>2.842234150541371</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0.8971561646416792</v>
-      </c>
-      <c r="N14" t="n">
-        <v>-2.842234150541371</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15">
@@ -1108,40 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>554</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
-        <v>4243790845.786891</v>
+        <v>538</v>
       </c>
       <c r="E15" t="n">
-        <v>0.004965350667070036</v>
+        <v>5303817095.268112</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3419447641819225</v>
+        <v>0.005680199498719143</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="I15" t="n">
-        <v>13</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.2102685649288424</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="L15" t="n">
-        <v>3.111968600707056</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0.5243142542819377</v>
-      </c>
-      <c r="N15" t="n">
-        <v>-3.111968600707056</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16">
@@ -1154,40 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>488</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
-        <v>5171080259.722651</v>
+        <v>569</v>
       </c>
       <c r="E16" t="n">
-        <v>0.00167100299863924</v>
+        <v>6111597841.434909</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2471944459954213</v>
+        <v>0.004100751587727743</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="I16" t="n">
-        <v>13</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.5485665990234095</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="L16" t="n">
-        <v>2.920370052016912</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0.9151763132876188</v>
-      </c>
-      <c r="N16" t="n">
-        <v>-2.920370052016912</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17">
@@ -1200,40 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>508</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>7685931331.203353</v>
+        <v>462</v>
       </c>
       <c r="E17" t="n">
-        <v>0.004381541380359111</v>
+        <v>6519321591.306093</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1731280260855083</v>
+        <v>0.002065857723617558</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="I17" t="n">
-        <v>12</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.5485665990234095</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="L17" t="n">
-        <v>2.879542182974535</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0.9436980089859917</v>
-      </c>
-      <c r="N17" t="n">
-        <v>-2.879542182974535</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18">
@@ -1246,40 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>497</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
-        <v>6872541171.616985</v>
+        <v>536</v>
       </c>
       <c r="E18" t="n">
-        <v>0.00116419486842914</v>
+        <v>6150410964.309299</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1894258320890788</v>
+        <v>0.001117164525526375</v>
       </c>
       <c r="G18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="I18" t="n">
-        <v>13</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.8620844852676913</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="L18" t="n">
-        <v>2.803553741569173</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.198207523126693</v>
-      </c>
-      <c r="N18" t="n">
-        <v>-2.803553741569173</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19">
@@ -1292,40 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>502</v>
+        <v>6</v>
       </c>
       <c r="D19" t="n">
-        <v>6085072935.90115</v>
+        <v>512</v>
       </c>
       <c r="E19" t="n">
-        <v>0.001217401097988846</v>
+        <v>3617324597.321394</v>
       </c>
       <c r="F19" t="n">
-        <v>0.216091704052068</v>
+        <v>0.001443304048453701</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="I19" t="n">
-        <v>17</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.5485665990234095</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="L19" t="n">
-        <v>2.522566640148003</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0.9040704533746089</v>
-      </c>
-      <c r="N19" t="n">
-        <v>-2.522566640148003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1338,40 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>406</v>
+        <v>6</v>
       </c>
       <c r="D20" t="n">
-        <v>5842947484.476484</v>
+        <v>508</v>
       </c>
       <c r="E20" t="n">
-        <v>0.002702245428946161</v>
+        <v>4819178511.849263</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1820095667170428</v>
+        <v>0.00131492459302072</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1204965703162807</v>
-      </c>
-      <c r="I20" t="n">
-        <v>12</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.5485665990234095</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.1204965703162808</v>
-      </c>
-      <c r="L20" t="n">
-        <v>2.897501914695805</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0.8260556824646683</v>
-      </c>
-      <c r="N20" t="n">
-        <v>-2.897501914695805</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21">
@@ -1384,40 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>464</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
-        <v>4118902707.420316</v>
+        <v>440</v>
       </c>
       <c r="E21" t="n">
-        <v>0.003495120266565044</v>
+        <v>6061772527.598347</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2950778511496349</v>
+        <v>0.003692138496115049</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="I21" t="n">
-        <v>16</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.5485665990234095</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="L21" t="n">
-        <v>2.75409381306783</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0.8671646715456265</v>
-      </c>
-      <c r="N21" t="n">
-        <v>-2.75409381306783</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22">
@@ -1430,40 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>421</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
-        <v>4170796226.284842</v>
+        <v>441</v>
       </c>
       <c r="E22" t="n">
-        <v>0.001920615895399191</v>
+        <v>5469813878.131227</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2644011191556803</v>
+        <v>0.005662772825325603</v>
       </c>
       <c r="G22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="I22" t="n">
-        <v>19</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.5485665990234095</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="L22" t="n">
-        <v>2.494044006764526</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0.7922243881825862</v>
-      </c>
-      <c r="N22" t="n">
-        <v>-2.494044006764526</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -1476,40 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>489</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
-        <v>7073710656.462761</v>
+        <v>439</v>
       </c>
       <c r="E23" t="n">
-        <v>0.002005186979892943</v>
+        <v>7078414740.985222</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1810763504766408</v>
+        <v>0.00187115122998753</v>
       </c>
       <c r="G23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="I23" t="n">
-        <v>22</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0.5485665990234095</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="L23" t="n">
-        <v>2.169563844829847</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0.8543024892461988</v>
-      </c>
-      <c r="N23" t="n">
-        <v>-2.169563844829847</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24">
@@ -1522,40 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>561</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
-        <v>5525064420.028789</v>
+        <v>513</v>
       </c>
       <c r="E24" t="n">
-        <v>0.004629431951755945</v>
+        <v>7307951122.775421</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2659657296796448</v>
+        <v>0.00456736617813682</v>
       </c>
       <c r="G24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="I24" t="n">
-        <v>15</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.3777361227518841</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="L24" t="n">
-        <v>2.774096899546964</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0.7781818313774048</v>
-      </c>
-      <c r="N24" t="n">
-        <v>-2.774096899546964</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25">
@@ -1568,40 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>502</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>5413259802.605798</v>
+        <v>473</v>
       </c>
       <c r="E25" t="n">
-        <v>0.001173784140480929</v>
+        <v>4720639524.596092</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2429097859605826</v>
+        <v>0.003920106649690129</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2436454298167454</v>
-      </c>
-      <c r="I25" t="n">
-        <v>11</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.5485665990234095</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.2436454298167455</v>
-      </c>
-      <c r="L25" t="n">
-        <v>3.144132915372944</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0.9436705549990886</v>
-      </c>
-      <c r="N25" t="n">
-        <v>-3.144132915372944</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26">
@@ -1614,40 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>440</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
-        <v>8878378545.372093</v>
+        <v>462</v>
       </c>
       <c r="E26" t="n">
-        <v>0.003343816849561506</v>
+        <v>4012074843.362727</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1298132980149584</v>
+        <v>0.001446838290396227</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="I26" t="n">
-        <v>20</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.5485665990234095</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="L26" t="n">
-        <v>2.1660074204716</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0.8088302224816599</v>
-      </c>
-      <c r="N26" t="n">
-        <v>-2.1660074204716</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1660,40 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>520</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
-        <v>6054631295.600825</v>
+        <v>517</v>
       </c>
       <c r="E27" t="n">
-        <v>0.004693124232801393</v>
+        <v>8447894272.079785</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2249654410813855</v>
+        <v>0.003328309169958379</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="I27" t="n">
-        <v>16</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0.5485665990234095</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="L27" t="n">
-        <v>2.612316600374959</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0.93074127438583</v>
-      </c>
-      <c r="N27" t="n">
-        <v>-2.612316600374959</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28">
@@ -1706,40 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>488</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>5647876142.162022</v>
+        <v>507</v>
       </c>
       <c r="E28" t="n">
-        <v>0.003842736873459637</v>
+        <v>6930881404.19311</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2263261955158029</v>
+        <v>0.005365991746497446</v>
       </c>
       <c r="G28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="I28" t="n">
-        <v>13</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.5485665990234095</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="L28" t="n">
-        <v>2.878171497097791</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0.9151763132876188</v>
-      </c>
-      <c r="N28" t="n">
-        <v>-2.878171497097791</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29">
@@ -1752,40 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>550</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
-        <v>5434252017.002002</v>
+        <v>504</v>
       </c>
       <c r="E29" t="n">
-        <v>0.003512169427094836</v>
+        <v>6395815034.641234</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2651081502095653</v>
+        <v>0.001488871679490555</v>
       </c>
       <c r="G29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="I29" t="n">
-        <v>14</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.5485665990234095</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="L29" t="n">
-        <v>2.859541027964968</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0.9756558063492877</v>
-      </c>
-      <c r="N29" t="n">
-        <v>-2.859541027964968</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30">
@@ -1798,40 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>483</v>
+        <v>1</v>
       </c>
       <c r="D30" t="n">
-        <v>8499320839.705422</v>
+        <v>564</v>
       </c>
       <c r="E30" t="n">
-        <v>0.003553472151139161</v>
+        <v>5522487182.047454</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1488548783909479</v>
+        <v>0.003120352937565361</v>
       </c>
       <c r="G30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="I30" t="n">
-        <v>19</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0.8665789117736842</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="L30" t="n">
-        <v>2.26039316040485</v>
-      </c>
-      <c r="M30" t="n">
-        <v>1.151390362673335</v>
-      </c>
-      <c r="N30" t="n">
-        <v>-2.26039316040485</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31">
@@ -1844,40 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>555</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
-        <v>5830989036.590513</v>
+        <v>457</v>
       </c>
       <c r="E31" t="n">
-        <v>0.003502687500036464</v>
+        <v>4945855605.060969</v>
       </c>
       <c r="F31" t="n">
-        <v>0.2493164437246209</v>
+        <v>0.002156660386047225</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="I31" t="n">
-        <v>19</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.5485665990234095</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="L31" t="n">
-        <v>2.463540658856354</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0.9492810037915687</v>
-      </c>
-      <c r="N31" t="n">
-        <v>-2.463540658856354</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32">
@@ -1890,40 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>516</v>
+        <v>1</v>
       </c>
       <c r="D32" t="n">
-        <v>3806884341.105919</v>
+        <v>574</v>
       </c>
       <c r="E32" t="n">
-        <v>0.002488747404637244</v>
+        <v>5287085382.274623</v>
       </c>
       <c r="F32" t="n">
-        <v>0.3550423703199115</v>
+        <v>0.0008988950737726603</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.4703933799590733</v>
-      </c>
-      <c r="I32" t="n">
-        <v>19</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0.3097323977027311</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0.4703933799590734</v>
-      </c>
-      <c r="L32" t="n">
-        <v>2.677333440583015</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0.6024720317831845</v>
-      </c>
-      <c r="N32" t="n">
-        <v>-2.677333440583015</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1936,40 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>426</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
-        <v>4298435356.710087</v>
+        <v>470</v>
       </c>
       <c r="E33" t="n">
-        <v>0.004380269177921706</v>
+        <v>7584909082.222813</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2595968177718627</v>
+        <v>0.002200676444288041</v>
       </c>
       <c r="G33" t="b">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="I33" t="n">
-        <v>12</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0.5485665990234095</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="L33" t="n">
-        <v>3.054394313407339</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0.8504064418513988</v>
-      </c>
-      <c r="N33" t="n">
-        <v>-3.054394313407339</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34">
@@ -1982,40 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>368</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
-        <v>3372579813.752537</v>
+        <v>560</v>
       </c>
       <c r="E34" t="n">
-        <v>0.002693531213190146</v>
+        <v>5357759066.894677</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2858154805022885</v>
+        <v>0.004600542600411235</v>
       </c>
       <c r="G34" t="b">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.3304068144967667</v>
-      </c>
-      <c r="I34" t="n">
-        <v>16</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0.5485665990234095</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0.3304068144967668</v>
-      </c>
-      <c r="L34" t="n">
-        <v>2.735363989174589</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0.7456698758082796</v>
-      </c>
-      <c r="N34" t="n">
-        <v>-2.735363989174589</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35">
@@ -2028,40 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>509</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
-        <v>6346940715.691374</v>
+        <v>514</v>
       </c>
       <c r="E35" t="n">
-        <v>0.002968528451979102</v>
+        <v>4418428563.138863</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2100649068146789</v>
+        <v>0.002060115625252186</v>
       </c>
       <c r="G35" t="b">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1772284372756603</v>
-      </c>
-      <c r="I35" t="n">
-        <v>15</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0.5485665990234095</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0.1772284372756602</v>
-      </c>
-      <c r="L35" t="n">
-        <v>2.661057526840793</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0.9252144197973654</v>
-      </c>
-      <c r="N35" t="n">
-        <v>-2.661057526840793</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36">
@@ -2074,40 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>589</v>
+        <v>1</v>
       </c>
       <c r="D36" t="n">
-        <v>7298371993.110824</v>
+        <v>538</v>
       </c>
       <c r="E36" t="n">
-        <v>0.001780031013941675</v>
+        <v>8095429671.890658</v>
       </c>
       <c r="F36" t="n">
-        <v>0.211392446350545</v>
+        <v>0.003017902860677453</v>
       </c>
       <c r="G36" t="b">
         <v>1</v>
       </c>
       <c r="H36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="I36" t="n">
-        <v>15</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0.5485665990234095</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="L36" t="n">
-        <v>2.663741999603197</v>
-      </c>
-      <c r="M36" t="n">
-        <v>1.009610927952805</v>
-      </c>
-      <c r="N36" t="n">
-        <v>-2.663741999603197</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37">
@@ -2120,40 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>600</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
-        <v>5259872171.049418</v>
+        <v>573</v>
       </c>
       <c r="E37" t="n">
-        <v>0.002908427406405509</v>
+        <v>5621302659.433045</v>
       </c>
       <c r="F37" t="n">
-        <v>0.2987969952293417</v>
+        <v>0.004736860310969637</v>
       </c>
       <c r="G37" t="b">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.356657273905329</v>
-      </c>
-      <c r="I37" t="n">
         <v>20</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0.3471104796451373</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0.3566572739053289</v>
-      </c>
-      <c r="L37" t="n">
-        <v>2.507716364127507</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0.7287205426090557</v>
-      </c>
-      <c r="N37" t="n">
-        <v>-2.507716364127507</v>
       </c>
     </row>
     <row r="38">
@@ -2166,40 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>494</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
-        <v>7496605945.036965</v>
+        <v>461</v>
       </c>
       <c r="E38" t="n">
-        <v>0.00143927720525069</v>
+        <v>4848233918.063805</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1726086004102513</v>
+        <v>0.003372783549559397</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="I38" t="n">
-        <v>16</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.5485665990234095</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="L38" t="n">
-        <v>2.506443661068888</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0.9017811576497456</v>
-      </c>
-      <c r="N38" t="n">
-        <v>-2.506443661068888</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -2212,40 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>444</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
-        <v>3760683806.714372</v>
+        <v>470</v>
       </c>
       <c r="E39" t="n">
-        <v>0.001576353555582976</v>
+        <v>4946382616.900686</v>
       </c>
       <c r="F39" t="n">
-        <v>0.3092547046692808</v>
+        <v>0.00199515911486824</v>
       </c>
       <c r="G39" t="b">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.3778042419542554</v>
-      </c>
-      <c r="I39" t="n">
         <v>13</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0.5485665990234095</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0.3778042419542554</v>
-      </c>
-      <c r="L39" t="n">
-        <v>3.045864675368377</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0.8647177618276992</v>
-      </c>
-      <c r="N39" t="n">
-        <v>-3.045864675368377</v>
       </c>
     </row>
     <row r="40">
@@ -2258,40 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>563</v>
+        <v>6</v>
       </c>
       <c r="D40" t="n">
-        <v>4800759015.486515</v>
+        <v>523</v>
       </c>
       <c r="E40" t="n">
-        <v>0.003643763940889476</v>
+        <v>5338121481.473583</v>
       </c>
       <c r="F40" t="n">
-        <v>0.3071840442819124</v>
+        <v>0.003703557004907116</v>
       </c>
       <c r="G40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.3736170736930465</v>
-      </c>
-      <c r="I40" t="n">
-        <v>17</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0.5485665990234095</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0.3736170736930466</v>
-      </c>
-      <c r="L40" t="n">
-        <v>2.706768239877443</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0.9704915859429397</v>
-      </c>
-      <c r="N40" t="n">
-        <v>-2.706768239877443</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41">
@@ -2304,40 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>496</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
-        <v>5814360010.920331</v>
+        <v>540</v>
       </c>
       <c r="E41" t="n">
-        <v>0.003441932960349784</v>
+        <v>5059783410.49642</v>
       </c>
       <c r="F41" t="n">
-        <v>0.2234497756519814</v>
+        <v>0.001233075542584408</v>
       </c>
       <c r="G41" t="b">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="I41" t="n">
-        <v>11</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0.5485665990234095</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="L41" t="n">
-        <v>3.104782021318064</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0.9371590999554087</v>
-      </c>
-      <c r="N41" t="n">
-        <v>-3.104782021318064</v>
+        <v>24</v>
       </c>
     </row>
     <row r="42">
@@ -2350,40 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>559</v>
+        <v>6</v>
       </c>
       <c r="D42" t="n">
-        <v>9009455758.474722</v>
+        <v>514</v>
       </c>
       <c r="E42" t="n">
-        <v>0.004120430989197746</v>
+        <v>4561820612.193309</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1625224707522058</v>
+        <v>0.004373060522037031</v>
       </c>
       <c r="G42" t="b">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="I42" t="n">
-        <v>16</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0.5485665990234095</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="L42" t="n">
-        <v>2.486048079910223</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0.9725658924593358</v>
-      </c>
-      <c r="N42" t="n">
-        <v>-2.486048079910223</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43">
@@ -2396,40 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>503</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
-        <v>4839685259.079359</v>
+        <v>493</v>
       </c>
       <c r="E43" t="n">
-        <v>0.001751323143399764</v>
+        <v>6555126461.678347</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2722394328284552</v>
+        <v>0.004419793306226057</v>
       </c>
       <c r="G43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="I43" t="n">
-        <v>16</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0.5485665990234095</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="L43" t="n">
-        <v>2.707911300032852</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0.9119098984585592</v>
-      </c>
-      <c r="N43" t="n">
-        <v>-2.707911300032852</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44">
@@ -2442,40 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>535</v>
+        <v>1</v>
       </c>
       <c r="D44" t="n">
-        <v>5142818208.229213</v>
+        <v>523</v>
       </c>
       <c r="E44" t="n">
-        <v>0.002977863165484078</v>
+        <v>4837446716.251074</v>
       </c>
       <c r="F44" t="n">
-        <v>0.2724913837626246</v>
+        <v>0.001693400578396924</v>
       </c>
       <c r="G44" t="b">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.3034636057900505</v>
-      </c>
-      <c r="I44" t="n">
         <v>22</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0.3145792295054005</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0.3034636057900506</v>
-      </c>
-      <c r="L44" t="n">
-        <v>2.354417975573557</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0.5982748398996937</v>
-      </c>
-      <c r="N44" t="n">
-        <v>-2.354417975573557</v>
       </c>
     </row>
     <row r="45">
@@ -2488,40 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>534</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
-        <v>3963283408.268007</v>
+        <v>520</v>
       </c>
       <c r="E45" t="n">
-        <v>0.001192640398095167</v>
+        <v>4840929516.517081</v>
       </c>
       <c r="F45" t="n">
-        <v>0.3529281446494559</v>
+        <v>0.001426239123881296</v>
       </c>
       <c r="G45" t="b">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="I45" t="n">
-        <v>14</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0.5485665990234095</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="L45" t="n">
-        <v>3.037125481534187</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0.9587730449981002</v>
-      </c>
-      <c r="N45" t="n">
-        <v>-3.037125481534187</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46">
@@ -2534,40 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>428</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
-        <v>4971721447.376981</v>
+        <v>406</v>
       </c>
       <c r="E46" t="n">
-        <v>0.003654645328717432</v>
+        <v>7456056141.839622</v>
       </c>
       <c r="F46" t="n">
-        <v>0.225495119118445</v>
+        <v>0.004701760838705876</v>
       </c>
       <c r="G46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="I46" t="n">
-        <v>18</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0.5485665990234095</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="L46" t="n">
-        <v>2.47584587853106</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0.8087661573137555</v>
-      </c>
-      <c r="N46" t="n">
-        <v>-2.47584587853106</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47">
@@ -2580,40 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>484</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
-        <v>7366426632.272665</v>
+        <v>368</v>
       </c>
       <c r="E47" t="n">
-        <v>0.004305234389428485</v>
+        <v>6304506390.393703</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1721030865149426</v>
+        <v>0.003304548771833159</v>
       </c>
       <c r="G47" t="b">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="I47" t="n">
-        <v>16</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0.5485665990234095</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="L47" t="n">
-        <v>2.505421440452244</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0.8903918763033621</v>
-      </c>
-      <c r="N47" t="n">
-        <v>-2.505421440452244</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48">
@@ -2626,40 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>506</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
-        <v>5596692203.920995</v>
+        <v>431</v>
       </c>
       <c r="E48" t="n">
-        <v>0.001896823417889677</v>
+        <v>6452081615.579292</v>
       </c>
       <c r="F48" t="n">
-        <v>0.2368204810461844</v>
+        <v>0.002808406446587349</v>
       </c>
       <c r="G48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="I48" t="n">
-        <v>10</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0.5485665990234095</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="L48" t="n">
-        <v>3.273388932620408</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0.9543971204302457</v>
-      </c>
-      <c r="N48" t="n">
-        <v>-3.273388932620408</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49">
@@ -2672,40 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>479</v>
+        <v>6</v>
       </c>
       <c r="D49" t="n">
-        <v>4506669022.531095</v>
+        <v>581</v>
       </c>
       <c r="E49" t="n">
-        <v>0.001668197721890523</v>
+        <v>3605769464.0646</v>
       </c>
       <c r="F49" t="n">
-        <v>0.2784069128944654</v>
+        <v>0.005530311998714701</v>
       </c>
       <c r="G49" t="b">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.3154256426263176</v>
-      </c>
-      <c r="I49" t="n">
-        <v>20</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0.5485665990234095</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0.3154256426263177</v>
-      </c>
-      <c r="L49" t="n">
-        <v>2.466484732848496</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0.8566279379810098</v>
-      </c>
-      <c r="N49" t="n">
-        <v>-2.466484732848496</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50">
@@ -2718,40 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>559</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
-        <v>5877760196.501237</v>
+        <v>528</v>
       </c>
       <c r="E50" t="n">
-        <v>0.004838338444516511</v>
+        <v>6299254163.27217</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2491151324736921</v>
+        <v>0.002663333654659661</v>
       </c>
       <c r="G50" t="b">
         <v>1</v>
       </c>
       <c r="H50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="I50" t="n">
-        <v>8</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0.5485665990234095</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="L50" t="n">
-        <v>3.657316571757286</v>
-      </c>
-      <c r="M50" t="n">
-        <v>1.021491747781146</v>
-      </c>
-      <c r="N50" t="n">
-        <v>-3.657316571757286</v>
+        <v>23</v>
       </c>
     </row>
     <row r="51">
@@ -2764,40 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>547</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
-        <v>5810593363.515237</v>
+        <v>394</v>
       </c>
       <c r="E51" t="n">
-        <v>0.004467493220802955</v>
+        <v>3563377676.138299</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2465852005746268</v>
+        <v>0.005397154622751859</v>
       </c>
       <c r="G51" t="b">
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="I51" t="n">
-        <v>20</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0.5485665990234095</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="L51" t="n">
-        <v>2.402136728387811</v>
-      </c>
-      <c r="M51" t="n">
-        <v>0.9341359921789942</v>
-      </c>
-      <c r="N51" t="n">
-        <v>-2.402136728387811</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -2810,40 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>444</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
-        <v>6470012241.540823</v>
+        <v>497</v>
       </c>
       <c r="E52" t="n">
-        <v>0.004773646221288592</v>
+        <v>6746668283.49087</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1797537804539039</v>
+        <v>0.00164844345151082</v>
       </c>
       <c r="G52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H52" t="n">
-        <v>0.1159350513425731</v>
-      </c>
-      <c r="I52" t="n">
-        <v>16</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0.8036115834145335</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0.115935051342573</v>
-      </c>
-      <c r="L52" t="n">
-        <v>2.520892226020395</v>
-      </c>
-      <c r="M52" t="n">
-        <v>1.064192177559662</v>
-      </c>
-      <c r="N52" t="n">
-        <v>-2.520892226020395</v>
+        <v>19</v>
       </c>
     </row>
     <row r="53">
@@ -2856,40 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>504</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
-        <v>5986802561.862445</v>
+        <v>443</v>
       </c>
       <c r="E53" t="n">
-        <v>0.002647591793902008</v>
+        <v>6239701680.18175</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2205137961972986</v>
+        <v>0.002951080555339269</v>
       </c>
       <c r="G53" t="b">
         <v>1</v>
       </c>
       <c r="H53" t="n">
-        <v>0.198357569920821</v>
-      </c>
-      <c r="I53" t="n">
         <v>15</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0.5485665990234095</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0.1983575699208209</v>
-      </c>
-      <c r="L53" t="n">
-        <v>2.682186659485954</v>
-      </c>
-      <c r="M53" t="n">
-        <v>0.919682521932666</v>
-      </c>
-      <c r="N53" t="n">
-        <v>-2.682186659485954</v>
       </c>
     </row>
     <row r="54">
@@ -2902,40 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>456</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
-        <v>6883632404.78794</v>
+        <v>591</v>
       </c>
       <c r="E54" t="n">
-        <v>0.001273042417447379</v>
+        <v>5004532958.569479</v>
       </c>
       <c r="F54" t="n">
-        <v>0.173519120394808</v>
+        <v>0.004412893250947418</v>
       </c>
       <c r="G54" t="b">
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="I54" t="n">
-        <v>18</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0.5485665990234095</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="L54" t="n">
-        <v>2.370743055524515</v>
-      </c>
-      <c r="M54" t="n">
-        <v>0.8433593974992634</v>
-      </c>
-      <c r="N54" t="n">
-        <v>-2.370743055524515</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55">
@@ -2948,40 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>501</v>
+        <v>1</v>
       </c>
       <c r="D55" t="n">
-        <v>6289150161.433359</v>
+        <v>568</v>
       </c>
       <c r="E55" t="n">
-        <v>0.002644703070806149</v>
+        <v>6137998780.294052</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2086632305343001</v>
+        <v>0.003472324429068288</v>
       </c>
       <c r="G55" t="b">
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>0.1743940495269526</v>
-      </c>
-      <c r="I55" t="n">
-        <v>18</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0.5485665990234095</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0.1743940495269526</v>
-      </c>
-      <c r="L55" t="n">
-        <v>2.441809418430857</v>
-      </c>
-      <c r="M55" t="n">
-        <v>0.8961624330573348</v>
-      </c>
-      <c r="N55" t="n">
-        <v>-2.441809418430857</v>
+        <v>26</v>
       </c>
     </row>
     <row r="56">
@@ -2994,40 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>493</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
-        <v>5596839608.75808</v>
+        <v>467</v>
       </c>
       <c r="E56" t="n">
-        <v>0.003304461626571624</v>
+        <v>5629111005.24184</v>
       </c>
       <c r="F56" t="n">
-        <v>0.230730083452677</v>
+        <v>0.002375719210176403</v>
       </c>
       <c r="G56" t="b">
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="I56" t="n">
-        <v>16</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0.5485665990234095</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="L56" t="n">
-        <v>2.62397352283387</v>
-      </c>
-      <c r="M56" t="n">
-        <v>0.9006487106533858</v>
-      </c>
-      <c r="N56" t="n">
-        <v>-2.62397352283387</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57">
@@ -3040,40 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>426</v>
+        <v>6</v>
       </c>
       <c r="D57" t="n">
-        <v>5810276155.501841</v>
+        <v>475</v>
       </c>
       <c r="E57" t="n">
-        <v>0.002658115859908592</v>
+        <v>7544289808.837274</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1920494155761211</v>
+        <v>0.003540039421091766</v>
       </c>
       <c r="G57" t="b">
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="I57" t="n">
-        <v>15</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0.5485665990234095</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="L57" t="n">
-        <v>2.624627654716739</v>
-      </c>
-      <c r="M57" t="n">
-        <v>0.828616769374539</v>
-      </c>
-      <c r="N57" t="n">
-        <v>-2.624627654716739</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58">
@@ -3086,40 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>440</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
-        <v>8242525952.269956</v>
+        <v>484</v>
       </c>
       <c r="E58" t="n">
-        <v>0.001281571908175489</v>
+        <v>6174647795.574138</v>
       </c>
       <c r="F58" t="n">
-        <v>0.139827476027855</v>
+        <v>0.00246570487108018</v>
       </c>
       <c r="G58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="I58" t="n">
-        <v>17</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0.5485665990234095</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="L58" t="n">
-        <v>2.368349581186241</v>
-      </c>
-      <c r="M58" t="n">
-        <v>0.8311387938565917</v>
-      </c>
-      <c r="N58" t="n">
-        <v>-2.368349581186241</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59">
@@ -3132,40 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>480</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
-        <v>6466275997.81827</v>
+        <v>352</v>
       </c>
       <c r="E59" t="n">
-        <v>0.001864157960898031</v>
+        <v>7636081816.822704</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1944406951426474</v>
+        <v>0.004417999529226098</v>
       </c>
       <c r="G59" t="b">
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="I59" t="n">
-        <v>16</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0.8818542810301868</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="L59" t="n">
-        <v>2.550591245432238</v>
-      </c>
-      <c r="M59" t="n">
-        <v>1.174688906227515</v>
-      </c>
-      <c r="N59" t="n">
-        <v>-2.550591245432238</v>
+        <v>11</v>
       </c>
     </row>
     <row r="60">
@@ -3178,40 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>435</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
-        <v>7458213348.712278</v>
+        <v>424</v>
       </c>
       <c r="E60" t="n">
-        <v>0.003912790763270439</v>
+        <v>5010929802.337248</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1527758186478713</v>
+        <v>0.004234781810948767</v>
       </c>
       <c r="G60" t="b">
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0.06138179571677433</v>
-      </c>
-      <c r="I60" t="n">
-        <v>19</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0.8370365544650913</v>
-      </c>
-      <c r="K60" t="n">
-        <v>0.06138179571677436</v>
-      </c>
-      <c r="L60" t="n">
-        <v>2.268321856340715</v>
-      </c>
-      <c r="M60" t="n">
-        <v>1.059768609201956</v>
-      </c>
-      <c r="N60" t="n">
-        <v>-2.268321856340715</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -3224,40 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>549</v>
+        <v>1</v>
       </c>
       <c r="D61" t="n">
-        <v>2637048990.363001</v>
+        <v>488</v>
       </c>
       <c r="E61" t="n">
-        <v>0.001031373666018985</v>
+        <v>6115751390.975063</v>
       </c>
       <c r="F61" t="n">
-        <v>0.5453236232073364</v>
+        <v>0.005279578917527577</v>
       </c>
       <c r="G61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>0.8551689943734926</v>
-      </c>
-      <c r="I61" t="n">
-        <v>23</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0.5485665990234095</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0.8551689943734927</v>
-      </c>
-      <c r="L61" t="n">
-        <v>2.861041938814709</v>
-      </c>
-      <c r="M61" t="n">
-        <v>0.916573509660624</v>
-      </c>
-      <c r="N61" t="n">
-        <v>-2.861041938814709</v>
+        <v>19</v>
       </c>
     </row>
     <row r="62">
@@ -3270,40 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>465</v>
+        <v>6</v>
       </c>
       <c r="D62" t="n">
-        <v>2433472544.51927</v>
+        <v>441</v>
       </c>
       <c r="E62" t="n">
-        <v>0.00356047916079438</v>
+        <v>6440511544.146926</v>
       </c>
       <c r="F62" t="n">
-        <v>0.5005260292511818</v>
+        <v>0.003811733806070247</v>
       </c>
       <c r="G62" t="b">
         <v>1</v>
       </c>
       <c r="H62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="I62" t="n">
-        <v>16</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0.5485665990234095</v>
-      </c>
-      <c r="K62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="L62" t="n">
-        <v>3.16953909608851</v>
-      </c>
-      <c r="M62" t="n">
-        <v>0.8683407878634654</v>
-      </c>
-      <c r="N62" t="n">
-        <v>-3.16953909608851</v>
+        <v>13</v>
       </c>
     </row>
     <row r="63">
@@ -3316,40 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>513</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
-        <v>6912856639.093707</v>
+        <v>490</v>
       </c>
       <c r="E63" t="n">
-        <v>0.003768429386582036</v>
+        <v>8308656463.859516</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1943837606006203</v>
+        <v>0.004156840600348004</v>
       </c>
       <c r="G63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>0.145518941055313</v>
-      </c>
-      <c r="I63" t="n">
-        <v>23</v>
-      </c>
-      <c r="J63" t="n">
-        <v>0.5485665990234095</v>
-      </c>
-      <c r="K63" t="n">
-        <v>0.1455189410553129</v>
-      </c>
-      <c r="L63" t="n">
-        <v>2.151391885496529</v>
-      </c>
-      <c r="M63" t="n">
-        <v>0.8755714546244965</v>
-      </c>
-      <c r="N63" t="n">
-        <v>-2.151391885496529</v>
+        <v>19</v>
       </c>
     </row>
     <row r="64">
@@ -3362,40 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>471</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
-        <v>6391668090.078709</v>
+        <v>545</v>
       </c>
       <c r="E64" t="n">
-        <v>0.002179511539909362</v>
+        <v>3425140436.589473</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1930220206388732</v>
+        <v>0.004996437652059802</v>
       </c>
       <c r="G64" t="b">
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="I64" t="n">
-        <v>15</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0.5485665990234095</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0.1427653101930866</v>
-      </c>
-      <c r="L64" t="n">
-        <v>2.626594399758219</v>
-      </c>
-      <c r="M64" t="n">
-        <v>0.8823025465006998</v>
-      </c>
-      <c r="N64" t="n">
-        <v>-2.626594399758219</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -3408,40 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>588</v>
+        <v>1</v>
       </c>
       <c r="D65" t="n">
-        <v>3533388679.974515</v>
+        <v>507</v>
       </c>
       <c r="E65" t="n">
-        <v>0.003973875328748099</v>
+        <v>6103388441.938045</v>
       </c>
       <c r="F65" t="n">
-        <v>0.4358992059744497</v>
+        <v>0.005200962108622149</v>
       </c>
       <c r="G65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="I65" t="n">
-        <v>19</v>
-      </c>
-      <c r="J65" t="n">
-        <v>0.2210577243555681</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="L65" t="n">
-        <v>2.840837401937458</v>
-      </c>
-      <c r="M65" t="n">
-        <v>0.5019375121667048</v>
-      </c>
-      <c r="N65" t="n">
-        <v>-2.840837401937458</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66">
@@ -3454,40 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>491</v>
+        <v>6</v>
       </c>
       <c r="D66" t="n">
-        <v>5567110560.494678</v>
+        <v>472</v>
       </c>
       <c r="E66" t="n">
-        <v>0.001036876469909744</v>
+        <v>5303368142.512423</v>
       </c>
       <c r="F66" t="n">
-        <v>0.2310211870277135</v>
+        <v>0.002653656604140743</v>
       </c>
       <c r="G66" t="b">
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="I66" t="n">
-        <v>16</v>
-      </c>
-      <c r="J66" t="n">
-        <v>0.5485665990234095</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="L66" t="n">
-        <v>2.624562175448057</v>
-      </c>
-      <c r="M66" t="n">
-        <v>0.898379534172828</v>
-      </c>
-      <c r="N66" t="n">
-        <v>-2.624562175448057</v>
+        <v>17</v>
       </c>
     </row>
     <row r="67">
@@ -3500,40 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>456</v>
+        <v>6</v>
       </c>
       <c r="D67" t="n">
-        <v>4654366646.283361</v>
+        <v>411</v>
       </c>
       <c r="E67" t="n">
-        <v>0.002839696911497791</v>
+        <v>5862025795.960999</v>
       </c>
       <c r="F67" t="n">
-        <v>0.2566282226506144</v>
+        <v>0.00507545538228916</v>
       </c>
       <c r="G67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="I67" t="n">
-        <v>12</v>
-      </c>
-      <c r="J67" t="n">
-        <v>0.5485665990234095</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="L67" t="n">
-        <v>3.048391394074021</v>
-      </c>
-      <c r="M67" t="n">
-        <v>0.8856781611046066</v>
-      </c>
-      <c r="N67" t="n">
-        <v>-3.048391394074021</v>
+        <v>13</v>
       </c>
     </row>
     <row r="68">
@@ -3546,40 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>366</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
-        <v>6513821875.080105</v>
+        <v>462</v>
       </c>
       <c r="E68" t="n">
-        <v>0.003140511718216091</v>
+        <v>8188727717.967453</v>
       </c>
       <c r="F68" t="n">
-        <v>0.147178838842321</v>
+        <v>0.002034158492861647</v>
       </c>
       <c r="G68" t="b">
         <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="I68" t="n">
-        <v>20</v>
-      </c>
-      <c r="J68" t="n">
-        <v>0.5485665990234095</v>
-      </c>
-      <c r="K68" t="n">
-        <v>0.0500639106867665</v>
-      </c>
-      <c r="L68" t="n">
-        <v>2.201123000908945</v>
-      </c>
-      <c r="M68" t="n">
-        <v>0.7093382573230055</v>
-      </c>
-      <c r="N68" t="n">
-        <v>-2.201123000908945</v>
+        <v>17</v>
       </c>
     </row>
     <row r="69">
@@ -3592,40 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>536</v>
+        <v>1</v>
       </c>
       <c r="D69" t="n">
-        <v>5636052620.792421</v>
+        <v>517</v>
       </c>
       <c r="E69" t="n">
-        <v>0.004981285858341339</v>
+        <v>6788875309.64396</v>
       </c>
       <c r="F69" t="n">
-        <v>0.2491092852505342</v>
+        <v>0.0009783066568515651</v>
       </c>
       <c r="G69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="I69" t="n">
-        <v>12</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0.5485665990234095</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="L69" t="n">
-        <v>3.033187038868461</v>
-      </c>
-      <c r="M69" t="n">
-        <v>0.9735082476786661</v>
-      </c>
-      <c r="N69" t="n">
-        <v>-3.033187038868461</v>
+        <v>18</v>
       </c>
     </row>
     <row r="70">
@@ -3638,40 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>463</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
-        <v>1965775214.208023</v>
+        <v>490</v>
       </c>
       <c r="E70" t="n">
-        <v>0.003238681339025371</v>
+        <v>8125027947.167851</v>
       </c>
       <c r="F70" t="n">
-        <v>0.6169462109575978</v>
+        <v>0.003839717399618697</v>
       </c>
       <c r="G70" t="b">
         <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>12</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0.5485665990234095</v>
-      </c>
-      <c r="K70" t="n">
-        <v>1</v>
-      </c>
-      <c r="L70" t="n">
-        <v>3.777005344379525</v>
-      </c>
-      <c r="M70" t="n">
-        <v>0.8937079495513078</v>
-      </c>
-      <c r="N70" t="n">
-        <v>-3.777005344379525</v>
+        <v>23</v>
       </c>
     </row>
     <row r="71">
@@ -3684,40 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>392</v>
+        <v>1</v>
       </c>
       <c r="D71" t="n">
-        <v>5407619371.805444</v>
+        <v>474</v>
       </c>
       <c r="E71" t="n">
-        <v>0.004938921305132829</v>
+        <v>4530824004.681056</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1898803908709983</v>
+        <v>0.002803395578878938</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="I71" t="n">
-        <v>14</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0.8260342818506582</v>
-      </c>
-      <c r="K71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="L71" t="n">
-        <v>2.707419855325631</v>
-      </c>
-      <c r="M71" t="n">
-        <v>1.016913417317062</v>
-      </c>
-      <c r="N71" t="n">
-        <v>-2.707419855325631</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -3730,40 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>630</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
-        <v>7800886068.803999</v>
+        <v>460</v>
       </c>
       <c r="E72" t="n">
-        <v>0.001261785409125543</v>
+        <v>6171829987.238614</v>
       </c>
       <c r="F72" t="n">
-        <v>0.2115420845074596</v>
+        <v>0.002330913636856803</v>
       </c>
       <c r="G72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="I72" t="n">
-        <v>17</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0.5485665990234095</v>
-      </c>
-      <c r="K72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="L72" t="n">
-        <v>2.513366665746614</v>
-      </c>
-      <c r="M72" t="n">
-        <v>1.038562174282392</v>
-      </c>
-      <c r="N72" t="n">
-        <v>-2.513366665746614</v>
+        <v>18</v>
       </c>
     </row>
     <row r="73">
@@ -3776,40 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>523</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
-        <v>6719917299.934001</v>
+        <v>480</v>
       </c>
       <c r="E73" t="n">
-        <v>0.001731362858148437</v>
+        <v>7418322290.275129</v>
       </c>
       <c r="F73" t="n">
-        <v>0.2038627722417737</v>
+        <v>0.001202839397395848</v>
       </c>
       <c r="G73" t="b">
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="I73" t="n">
-        <v>13</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0</v>
-      </c>
-      <c r="K73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="L73" t="n">
-        <v>2.832747277102617</v>
-      </c>
-      <c r="M73" t="n">
-        <v>-0.3981665296905977</v>
-      </c>
-      <c r="N73" t="n">
-        <v>-2.832747277102617</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74">
@@ -3822,40 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>463</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
-        <v>6682061397.388458</v>
+        <v>520</v>
       </c>
       <c r="E74" t="n">
-        <v>0.00120225037511986</v>
+        <v>5059233490.603909</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1814975196836695</v>
+        <v>0.005194928519772187</v>
       </c>
       <c r="G74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>0.1194611387701586</v>
-      </c>
-      <c r="I74" t="n">
-        <v>16</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0.5485665990234095</v>
-      </c>
-      <c r="K74" t="n">
-        <v>0.1194611387701587</v>
-      </c>
-      <c r="L74" t="n">
-        <v>2.524418313447981</v>
-      </c>
-      <c r="M74" t="n">
-        <v>0.8659869579193009</v>
-      </c>
-      <c r="N74" t="n">
-        <v>-2.524418313447981</v>
+        <v>17</v>
       </c>
     </row>
     <row r="75">
@@ -3868,40 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>465</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
-        <v>4792120646.976908</v>
+        <v>441</v>
       </c>
       <c r="E75" t="n">
-        <v>0.003854487465476196</v>
+        <v>5968067544.468025</v>
       </c>
       <c r="F75" t="n">
-        <v>0.2541706354510046</v>
+        <v>0.003709607356876146</v>
       </c>
       <c r="G75" t="b">
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="I75" t="n">
-        <v>17</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0.5485665990234095</v>
-      </c>
-      <c r="K75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="L75" t="n">
-        <v>2.599567626860755</v>
-      </c>
-      <c r="M75" t="n">
-        <v>0.8612900800056414</v>
-      </c>
-      <c r="N75" t="n">
-        <v>-2.599567626860755</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76">
@@ -3914,40 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>520</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
-        <v>5295899379.971079</v>
+        <v>459</v>
       </c>
       <c r="E76" t="n">
-        <v>0.001266857043339143</v>
+        <v>6725354276.184203</v>
       </c>
       <c r="F76" t="n">
-        <v>0.2571957475535418</v>
+        <v>0.002399860008844335</v>
       </c>
       <c r="G76" t="b">
         <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="I76" t="n">
-        <v>18</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0.5485665990234095</v>
-      </c>
-      <c r="K76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="L76" t="n">
-        <v>2.539949034245795</v>
-      </c>
-      <c r="M76" t="n">
-        <v>0.9175451356434298</v>
-      </c>
-      <c r="N76" t="n">
-        <v>-2.539949034245795</v>
+        <v>17</v>
       </c>
     </row>
     <row r="77">
@@ -3960,40 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>541</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
-        <v>6090836533.11596</v>
+        <v>576</v>
       </c>
       <c r="E77" t="n">
-        <v>0.001538019686585953</v>
+        <v>6684022278.516948</v>
       </c>
       <c r="F77" t="n">
-        <v>0.2326593370705752</v>
+        <v>0.004006828665157724</v>
       </c>
       <c r="G77" t="b">
         <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>0.2229175719230956</v>
-      </c>
-      <c r="I77" t="n">
-        <v>11</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0.5485665990234095</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0.2229175719230955</v>
-      </c>
-      <c r="L77" t="n">
-        <v>3.123405057479294</v>
-      </c>
-      <c r="M77" t="n">
-        <v>0.9849462988925606</v>
-      </c>
-      <c r="N77" t="n">
-        <v>-3.123405057479294</v>
+        <v>29</v>
       </c>
     </row>
     <row r="78">
@@ -4006,40 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>508</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
-        <v>5755377573.569175</v>
+        <v>454</v>
       </c>
       <c r="E78" t="n">
-        <v>0.003950433851355712</v>
+        <v>5006364780.962173</v>
       </c>
       <c r="F78" t="n">
-        <v>0.2312011858458841</v>
+        <v>0.005139188603735256</v>
       </c>
       <c r="G78" t="b">
         <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="I78" t="n">
-        <v>16</v>
-      </c>
-      <c r="J78" t="n">
-        <v>0.5485665990234095</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="L78" t="n">
-        <v>2.62492615852471</v>
-      </c>
-      <c r="M78" t="n">
-        <v>0.917488661706098</v>
-      </c>
-      <c r="N78" t="n">
-        <v>-2.62492615852471</v>
+        <v>19</v>
       </c>
     </row>
     <row r="79">
@@ -4052,40 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>517</v>
+        <v>1</v>
       </c>
       <c r="D79" t="n">
-        <v>7735365364.397675</v>
+        <v>461</v>
       </c>
       <c r="E79" t="n">
-        <v>0.003364631192832288</v>
+        <v>8160565201.647838</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1750692522208288</v>
+        <v>0.001766227995594842</v>
       </c>
       <c r="G79" t="b">
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="I79" t="n">
-        <v>13</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0.5485665990234095</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="L79" t="n">
-        <v>2.774522705900284</v>
-      </c>
-      <c r="M79" t="n">
-        <v>0.9469642109538721</v>
-      </c>
-      <c r="N79" t="n">
-        <v>-2.774522705900284</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80">
@@ -4098,40 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>562</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
-        <v>4088529327.703747</v>
+        <v>573</v>
       </c>
       <c r="E80" t="n">
-        <v>0.003528505863791298</v>
+        <v>7031109927.08491</v>
       </c>
       <c r="F80" t="n">
-        <v>0.360055428739404</v>
+        <v>0.002594471220372201</v>
       </c>
       <c r="G80" t="b">
         <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>0.4805304933330156</v>
-      </c>
-      <c r="I80" t="n">
-        <v>20</v>
-      </c>
-      <c r="J80" t="n">
-        <v>0.1802124929088529</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.4805304933330154</v>
-      </c>
-      <c r="L80" t="n">
-        <v>2.631589583555193</v>
-      </c>
-      <c r="M80" t="n">
-        <v>0.3646192596696597</v>
-      </c>
-      <c r="N80" t="n">
-        <v>-2.631589583555193</v>
+        <v>28</v>
       </c>
     </row>
     <row r="81">
@@ -4144,40 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>525</v>
+        <v>1</v>
       </c>
       <c r="D81" t="n">
-        <v>7788620010.622391</v>
+        <v>427</v>
       </c>
       <c r="E81" t="n">
-        <v>0.001341926276424057</v>
+        <v>6255786796.647137</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1765626963601359</v>
+        <v>0.004408336840894199</v>
       </c>
       <c r="G81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H81" t="n">
-        <v>0.1094822278289814</v>
-      </c>
-      <c r="I81" t="n">
-        <v>9</v>
-      </c>
-      <c r="J81" t="n">
-        <v>0.5485665990234095</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.1094822278289813</v>
-      </c>
-      <c r="L81" t="n">
-        <v>3.316091794066077</v>
-      </c>
-      <c r="M81" t="n">
-        <v>0.980740003750455</v>
-      </c>
-      <c r="N81" t="n">
-        <v>-3.316091794066077</v>
+        <v>14</v>
       </c>
     </row>
     <row r="82">
@@ -4190,40 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>492</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
-        <v>5110137236.720218</v>
+        <v>423</v>
       </c>
       <c r="E82" t="n">
-        <v>0.003894114140797396</v>
+        <v>7000633146.185437</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2521928121106856</v>
+        <v>0.00418500894159398</v>
       </c>
       <c r="G82" t="b">
         <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="I82" t="n">
-        <v>20</v>
-      </c>
-      <c r="J82" t="n">
-        <v>0.5485665990234095</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="L82" t="n">
-        <v>2.413476112281089</v>
-      </c>
-      <c r="M82" t="n">
-        <v>0.8719784721575519</v>
-      </c>
-      <c r="N82" t="n">
-        <v>-2.413476112281089</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83">
@@ -4236,40 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>459</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
-        <v>6735153055.929583</v>
+        <v>504</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0037012104166638</v>
+        <v>8483375510.301415</v>
       </c>
       <c r="F83" t="n">
-        <v>0.17851116374282</v>
+        <v>0.003691254794533356</v>
       </c>
       <c r="G83" t="b">
         <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="I83" t="n">
-        <v>22</v>
-      </c>
-      <c r="J83" t="n">
-        <v>0.5485665990234095</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="L83" t="n">
-        <v>2.164376674330304</v>
-      </c>
-      <c r="M83" t="n">
-        <v>0.8176784541719138</v>
-      </c>
-      <c r="N83" t="n">
-        <v>-2.164376674330304</v>
+        <v>21</v>
       </c>
     </row>
     <row r="84">
@@ -4282,40 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>549</v>
+        <v>6</v>
       </c>
       <c r="D84" t="n">
-        <v>7195812894.707349</v>
+        <v>524</v>
       </c>
       <c r="E84" t="n">
-        <v>0.004963485888600078</v>
+        <v>5786897445.51953</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1998447056701138</v>
+        <v>0.005484211936025835</v>
       </c>
       <c r="G84" t="b">
         <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>0.1565617446027592</v>
-      </c>
-      <c r="I84" t="n">
-        <v>19</v>
-      </c>
-      <c r="J84" t="n">
-        <v>0.5485665990234095</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0.1565617446027591</v>
-      </c>
-      <c r="L84" t="n">
-        <v>2.3635018052267</v>
-      </c>
-      <c r="M84" t="n">
-        <v>0.9428082978084528</v>
-      </c>
-      <c r="N84" t="n">
-        <v>-2.3635018052267</v>
+        <v>21</v>
       </c>
     </row>
     <row r="85">
@@ -4328,40 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>515</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
-        <v>7343572059.348492</v>
+        <v>512</v>
       </c>
       <c r="E85" t="n">
-        <v>0.001686637261955489</v>
+        <v>4982740820.294628</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1836961412100148</v>
+        <v>0.003731145796414165</v>
       </c>
       <c r="G85" t="b">
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="I85" t="n">
-        <v>22</v>
-      </c>
-      <c r="J85" t="n">
-        <v>0.5485665990234095</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="L85" t="n">
-        <v>2.174861432341884</v>
-      </c>
-      <c r="M85" t="n">
-        <v>0.8848179511546401</v>
-      </c>
-      <c r="N85" t="n">
-        <v>-2.174861432341884</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -4374,40 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>574</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
-        <v>4377831733.119165</v>
+        <v>517</v>
       </c>
       <c r="E86" t="n">
-        <v>0.004067952650289239</v>
+        <v>6825294486.803296</v>
       </c>
       <c r="F86" t="n">
-        <v>0.3434416742483495</v>
+        <v>0.002311650171014862</v>
       </c>
       <c r="G86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H86" t="n">
-        <v>0.4469351312307499</v>
-      </c>
-      <c r="I86" t="n">
-        <v>18</v>
-      </c>
-      <c r="J86" t="n">
-        <v>0.5485665990234095</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0.4469351312307498</v>
-      </c>
-      <c r="L86" t="n">
-        <v>2.714350500134654</v>
-      </c>
-      <c r="M86" t="n">
-        <v>0.9757620179277454</v>
-      </c>
-      <c r="N86" t="n">
-        <v>-2.714350500134654</v>
+        <v>21</v>
       </c>
     </row>
     <row r="87">
@@ -4420,40 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>585</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
-        <v>7449649415.639398</v>
+        <v>500</v>
       </c>
       <c r="E87" t="n">
-        <v>0.001649241042602768</v>
+        <v>3581493162.059635</v>
       </c>
       <c r="F87" t="n">
-        <v>0.2056933238741518</v>
+        <v>0.001397620201330743</v>
       </c>
       <c r="G87" t="b">
         <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="I87" t="n">
-        <v>24</v>
-      </c>
-      <c r="J87" t="n">
-        <v>0.5485665990234095</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="L87" t="n">
-        <v>2.132027788478467</v>
-      </c>
-      <c r="M87" t="n">
-        <v>0.9494174546103056</v>
-      </c>
-      <c r="N87" t="n">
-        <v>-2.132027788478467</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -4466,40 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>440</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
-        <v>6398240578.25938</v>
+        <v>477</v>
       </c>
       <c r="E88" t="n">
-        <v>0.004918757018959292</v>
+        <v>7387455516.336409</v>
       </c>
       <c r="F88" t="n">
-        <v>0.180132582684714</v>
+        <v>0.005804598051500675</v>
       </c>
       <c r="G88" t="b">
         <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>0.1167010430463785</v>
-      </c>
-      <c r="I88" t="n">
-        <v>16</v>
-      </c>
-      <c r="J88" t="n">
-        <v>0.5485665990234095</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0.1167010430463786</v>
-      </c>
-      <c r="L88" t="n">
-        <v>2.5216582177242</v>
-      </c>
-      <c r="M88" t="n">
-        <v>0.8384430908562666</v>
-      </c>
-      <c r="N88" t="n">
-        <v>-2.5216582177242</v>
+        <v>18</v>
       </c>
     </row>
     <row r="89">
@@ -4512,40 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>524</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
-        <v>5174470637.695141</v>
+        <v>473</v>
       </c>
       <c r="E89" t="n">
-        <v>0.003816160062299888</v>
+        <v>7536563154.775172</v>
       </c>
       <c r="F89" t="n">
-        <v>0.2652561887202781</v>
+        <v>0.003922050276129567</v>
       </c>
       <c r="G89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="I89" t="n">
-        <v>13</v>
-      </c>
-      <c r="J89" t="n">
-        <v>0.5485665990234095</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="L89" t="n">
-        <v>2.956893451189944</v>
-      </c>
-      <c r="M89" t="n">
-        <v>0.9544785544269996</v>
-      </c>
-      <c r="N89" t="n">
-        <v>-2.956893451189944</v>
+        <v>18</v>
       </c>
     </row>
     <row r="90">
@@ -4558,40 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>522</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
-        <v>7673803833.100504</v>
+        <v>433</v>
       </c>
       <c r="E90" t="n">
-        <v>0.004942449594295887</v>
+        <v>6594440438.13351</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1781804186995422</v>
+        <v>0.002588418689508482</v>
       </c>
       <c r="G90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="I90" t="n">
-        <v>15</v>
-      </c>
-      <c r="J90" t="n">
-        <v>0.307779939052231</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="L90" t="n">
-        <v>2.596582580840467</v>
-      </c>
-      <c r="M90" t="n">
-        <v>0.644108414073844</v>
-      </c>
-      <c r="N90" t="n">
-        <v>-2.596582580840467</v>
+        <v>14</v>
       </c>
     </row>
     <row r="91">
@@ -4604,40 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>394</v>
+        <v>1</v>
       </c>
       <c r="D91" t="n">
-        <v>6999966105.848434</v>
+        <v>556</v>
       </c>
       <c r="E91" t="n">
-        <v>0.003350828696333004</v>
+        <v>7852157421.997381</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1474349510260823</v>
+        <v>0.003871972610221929</v>
       </c>
       <c r="G91" t="b">
         <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>0.0505818057571972</v>
-      </c>
-      <c r="I91" t="n">
-        <v>13</v>
-      </c>
-      <c r="J91" t="n">
-        <v>0.8581016786702714</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0.05058180575719718</v>
-      </c>
-      <c r="L91" t="n">
-        <v>2.718642239171318</v>
-      </c>
-      <c r="M91" t="n">
-        <v>1.048554710480601</v>
-      </c>
-      <c r="N91" t="n">
-        <v>-2.718642239171318</v>
+        <v>25</v>
       </c>
     </row>
     <row r="92">
@@ -4650,40 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>613</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
-        <v>6436374362.913134</v>
+        <v>534</v>
       </c>
       <c r="E92" t="n">
-        <v>0.002467237847201718</v>
+        <v>4054677979.882566</v>
       </c>
       <c r="F92" t="n">
-        <v>0.2494705838199969</v>
+        <v>0.003962872482562066</v>
       </c>
       <c r="G92" t="b">
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="I92" t="n">
-        <v>12</v>
-      </c>
-      <c r="J92" t="n">
-        <v>0.5485665990234095</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="L92" t="n">
-        <v>3.033917635692597</v>
-      </c>
-      <c r="M92" t="n">
-        <v>1.051136215087088</v>
-      </c>
-      <c r="N92" t="n">
-        <v>-3.033917635692597</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -4696,40 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>514</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
-        <v>6075216945.814507</v>
+        <v>588</v>
       </c>
       <c r="E93" t="n">
-        <v>0.001278181697244812</v>
+        <v>7526666816.232608</v>
       </c>
       <c r="F93" t="n">
-        <v>0.221616194451718</v>
+        <v>0.001771097656507137</v>
       </c>
       <c r="G93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H93" t="n">
-        <v>0.200586775159051</v>
-      </c>
-      <c r="I93" t="n">
-        <v>17</v>
-      </c>
-      <c r="J93" t="n">
-        <v>0.5485665990234095</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0.2005867751590511</v>
-      </c>
-      <c r="L93" t="n">
-        <v>2.533737941343447</v>
-      </c>
-      <c r="M93" t="n">
-        <v>0.9175168991092661</v>
-      </c>
-      <c r="N93" t="n">
-        <v>-2.533737941343447</v>
+        <v>27</v>
       </c>
     </row>
     <row r="94">
@@ -4742,40 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>571</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
-        <v>6253933650.121945</v>
+        <v>588</v>
       </c>
       <c r="E94" t="n">
-        <v>0.004966283386816425</v>
+        <v>6202609270.317111</v>
       </c>
       <c r="F94" t="n">
-        <v>0.2391569488382461</v>
+        <v>0.0009534060068832477</v>
       </c>
       <c r="G94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H94" t="n">
-        <v>0.2360566622023207</v>
-      </c>
-      <c r="I94" t="n">
-        <v>14</v>
-      </c>
-      <c r="J94" t="n">
-        <v>0.3020015194819967</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0.2360566622023206</v>
-      </c>
-      <c r="L94" t="n">
-        <v>2.807064027204681</v>
-      </c>
-      <c r="M94" t="n">
-        <v>0.6862283397819812</v>
-      </c>
-      <c r="N94" t="n">
-        <v>-2.807064027204681</v>
+        <v>26</v>
       </c>
     </row>
     <row r="95">
@@ -4788,40 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>492</v>
+        <v>6</v>
       </c>
       <c r="D95" t="n">
-        <v>7142389052.36998</v>
+        <v>511</v>
       </c>
       <c r="E95" t="n">
-        <v>0.002735000566987866</v>
+        <v>5181632545.056654</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1804354076136992</v>
+        <v>0.001836376942394024</v>
       </c>
       <c r="G95" t="b">
         <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="I95" t="n">
-        <v>14</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="L95" t="n">
-        <v>2.688320762898952</v>
-      </c>
-      <c r="M95" t="n">
-        <v>1.288389094091662</v>
-      </c>
-      <c r="N95" t="n">
-        <v>-2.688320762898952</v>
+        <v>21</v>
       </c>
     </row>
     <row r="96">
@@ -4834,40 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>533</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
-        <v>5860872598.109471</v>
+        <v>520</v>
       </c>
       <c r="E96" t="n">
-        <v>0.001051412104368176</v>
+        <v>6836004880.58694</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2382127996521112</v>
+        <v>0.003171725162692153</v>
       </c>
       <c r="G96" t="b">
         <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>0.2341474589693102</v>
-      </c>
-      <c r="I96" t="n">
-        <v>23</v>
-      </c>
-      <c r="J96" t="n">
-        <v>0.5485665990234095</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0.2341474589693104</v>
-      </c>
-      <c r="L96" t="n">
-        <v>2.240020403410527</v>
-      </c>
-      <c r="M96" t="n">
-        <v>0.8985813808239319</v>
-      </c>
-      <c r="N96" t="n">
-        <v>-2.240020403410527</v>
+        <v>22</v>
       </c>
     </row>
     <row r="97">
@@ -4880,40 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>476</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
-        <v>4407918607.277596</v>
+        <v>514</v>
       </c>
       <c r="E97" t="n">
-        <v>0.004684108216307766</v>
+        <v>6004509515.544561</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2828613118993281</v>
+        <v>0.005830054621449669</v>
       </c>
       <c r="G97" t="b">
         <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="I97" t="n">
-        <v>15</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0.5485665990234095</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0.3244330676244965</v>
-      </c>
-      <c r="L97" t="n">
-        <v>2.808262157189629</v>
-      </c>
-      <c r="M97" t="n">
-        <v>0.8880673200913128</v>
-      </c>
-      <c r="N97" t="n">
-        <v>-2.808262157189629</v>
+        <v>21</v>
       </c>
     </row>
     <row r="98">
@@ -4926,40 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>451</v>
+        <v>1</v>
       </c>
       <c r="D98" t="n">
-        <v>9649857179.860353</v>
+        <v>616</v>
       </c>
       <c r="E98" t="n">
-        <v>0.004780297636508175</v>
+        <v>8718515525.837034</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1224209714176408</v>
+        <v>0.004916697856896535</v>
       </c>
       <c r="G98" t="b">
         <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>16</v>
-      </c>
-      <c r="J98" t="n">
-        <v>0.5485665990234095</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0</v>
-      </c>
-      <c r="L98" t="n">
-        <v>2.404957174677822</v>
-      </c>
-      <c r="M98" t="n">
-        <v>0.8517273834979199</v>
-      </c>
-      <c r="N98" t="n">
-        <v>-2.404957174677822</v>
+        <v>31</v>
       </c>
     </row>
     <row r="99">
@@ -4972,40 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>501</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
-        <v>5534389195.83054</v>
+        <v>567</v>
       </c>
       <c r="E99" t="n">
-        <v>0.004884433672264467</v>
+        <v>2738794401.375279</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2371200043156818</v>
+        <v>0.00594406631862887</v>
       </c>
       <c r="G99" t="b">
         <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>0.2319376721898811</v>
-      </c>
-      <c r="I99" t="n">
-        <v>20</v>
-      </c>
-      <c r="J99" t="n">
-        <v>0.9200758463102245</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0.231937672189881</v>
-      </c>
-      <c r="L99" t="n">
-        <v>2.382996762412059</v>
-      </c>
-      <c r="M99" t="n">
-        <v>1.212959948631448</v>
-      </c>
-      <c r="N99" t="n">
-        <v>-2.382996762412059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -5018,40 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>418</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
-        <v>6104910509.812019</v>
+        <v>422</v>
       </c>
       <c r="E100" t="n">
-        <v>0.002440107138719167</v>
+        <v>5201153737.627164</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1793482505992891</v>
+        <v>0.002339768017132932</v>
       </c>
       <c r="G100" t="b">
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="I100" t="n">
-        <v>15</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0.5485665990234095</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="L100" t="n">
-        <v>2.598944102167131</v>
-      </c>
-      <c r="M100" t="n">
-        <v>0.8187041591225874</v>
-      </c>
-      <c r="N100" t="n">
-        <v>-2.598944102167131</v>
+        <v>8</v>
       </c>
     </row>
     <row r="101">
@@ -5064,40 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>486</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
-        <v>3597566932.069057</v>
+        <v>573</v>
       </c>
       <c r="E101" t="n">
-        <v>0.003962580192655031</v>
+        <v>8534060059.082643</v>
       </c>
       <c r="F101" t="n">
-        <v>0.353856804901153</v>
+        <v>0.001594097348995238</v>
       </c>
       <c r="G101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="I101" t="n">
-        <v>17</v>
-      </c>
-      <c r="J101" t="n">
-        <v>0.5485665990234095</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="L101" t="n">
-        <v>2.801147165132418</v>
-      </c>
-      <c r="M101" t="n">
-        <v>0.8858244092464495</v>
-      </c>
-      <c r="N101" t="n">
-        <v>-2.801147165132418</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_82.xlsx
+++ b/output/fit_clients/fit_round_82.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,12 +461,22 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>channelGain</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>isSelected</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>reward</t>
         </is>
       </c>
     </row>
@@ -480,22 +490,28 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>502</v>
+        <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>8198582408.800313</v>
+        <v>2154808204.737813</v>
       </c>
       <c r="F2" t="n">
-        <v>0.00343986432416957</v>
-      </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>21</v>
+        <v>0.104727636360516</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.03456980359305661</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1077404118.731807</v>
       </c>
     </row>
     <row r="3">
@@ -508,22 +524,28 @@
         </is>
       </c>
       <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>537</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1697624446.790791</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.1431592101660473</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.0414569777500557</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>1</v>
       </c>
-      <c r="D3" t="n">
-        <v>542</v>
-      </c>
-      <c r="E3" t="n">
-        <v>4428017376.32458</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.00380615315133532</v>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>20</v>
+      <c r="J3" t="n">
+        <v>848812216.5478296</v>
       </c>
     </row>
     <row r="4">
@@ -536,22 +558,28 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5294034332.570763</v>
+        <v>4950470828.461853</v>
       </c>
       <c r="F4" t="n">
-        <v>0.002666818362059296</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>17</v>
+        <v>0.1035362376340296</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.0366462804586976</v>
+      </c>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>30</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2475235495.654222</v>
       </c>
     </row>
     <row r="5">
@@ -567,19 +595,25 @@
         <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>494</v>
+        <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3560580692.158643</v>
+        <v>3097724544.415244</v>
       </c>
       <c r="F5" t="n">
-        <v>0.004282143115725477</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
+        <v>0.0822212401209341</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.0477171484008445</v>
+      </c>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>31</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1548862335.480994</v>
       </c>
     </row>
     <row r="6">
@@ -592,22 +626,28 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>469</v>
+        <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>7482650826.861731</v>
+        <v>2785223424.271479</v>
       </c>
       <c r="F6" t="n">
-        <v>0.001825014674530193</v>
-      </c>
-      <c r="G6" t="b">
+        <v>0.09890292013378289</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.05303150710198833</v>
+      </c>
+      <c r="H6" t="b">
         <v>1</v>
       </c>
-      <c r="H6" t="n">
-        <v>17</v>
+      <c r="I6" t="n">
+        <v>12</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1392611656.666113</v>
       </c>
     </row>
     <row r="7">
@@ -623,19 +663,25 @@
         <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>539</v>
+        <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>8688345860.456835</v>
+        <v>2402543392.110114</v>
       </c>
       <c r="F7" t="n">
-        <v>0.001174934506252844</v>
-      </c>
-      <c r="G7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H7" t="n">
-        <v>23</v>
+        <v>0.07313625267221244</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.04135309575090124</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>25</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1201271718.378174</v>
       </c>
     </row>
     <row r="8">
@@ -651,19 +697,25 @@
         <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>5905211870.209016</v>
+        <v>2896587905.105489</v>
       </c>
       <c r="F8" t="n">
-        <v>0.003036900303640761</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>22</v>
+        <v>0.1514588357292684</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.02103200338089792</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>28</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1448293999.404923</v>
       </c>
     </row>
     <row r="9">
@@ -679,19 +731,25 @@
         <v>5</v>
       </c>
       <c r="D9" t="n">
-        <v>569</v>
+        <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>6499614107.84545</v>
+        <v>2161782111.497125</v>
       </c>
       <c r="F9" t="n">
-        <v>0.005424017732677043</v>
-      </c>
-      <c r="G9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" t="n">
-        <v>25</v>
+        <v>0.1547024415414019</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.02501274372790137</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1080891059.822023</v>
       </c>
     </row>
     <row r="10">
@@ -704,22 +762,28 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
-        <v>529</v>
+        <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3050761335.722243</v>
+        <v>5695110424.5761</v>
       </c>
       <c r="F10" t="n">
-        <v>0.003745610773528993</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
+        <v>0.1852766198147272</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.05170129011178125</v>
+      </c>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>35</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2847555365.342708</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +796,28 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3993784808.350873</v>
+        <v>3203049427.860102</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0009924839191909915</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
+        <v>0.1646992339317582</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.0325541817356271</v>
+      </c>
+      <c r="H11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>34</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1601524670.940556</v>
       </c>
     </row>
     <row r="12">
@@ -760,22 +830,28 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>5893142751.317295</v>
+        <v>2996933672.568378</v>
       </c>
       <c r="F12" t="n">
-        <v>0.001498440604291006</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>23</v>
+        <v>0.1757596671735017</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.04420025659675529</v>
+      </c>
+      <c r="H12" t="b">
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>29</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1498466853.930476</v>
       </c>
     </row>
     <row r="13">
@@ -788,22 +864,28 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
-        <v>480</v>
+        <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4955161854.063277</v>
+        <v>3722906540.715213</v>
       </c>
       <c r="F13" t="n">
-        <v>0.003765328889135538</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>17</v>
+        <v>0.0661776455946701</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.0226763143174776</v>
+      </c>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>28</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1861453339.284613</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +898,28 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>5891324553.879539</v>
+        <v>3107422088.550925</v>
       </c>
       <c r="F14" t="n">
-        <v>0.002324491834240256</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>19</v>
+        <v>0.1502195444426761</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.02921633705267056</v>
+      </c>
+      <c r="H14" t="b">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>26</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1553711070.859083</v>
       </c>
     </row>
     <row r="15">
@@ -847,19 +935,25 @@
         <v>3</v>
       </c>
       <c r="D15" t="n">
-        <v>538</v>
+        <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>5303817095.268112</v>
+        <v>1630420163.779581</v>
       </c>
       <c r="F15" t="n">
-        <v>0.005680199498719143</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>23</v>
+        <v>0.1063837236164465</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.03726881561531155</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>815210196.8691721</v>
       </c>
     </row>
     <row r="16">
@@ -875,19 +969,25 @@
         <v>5</v>
       </c>
       <c r="D16" t="n">
-        <v>569</v>
+        <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>6111597841.434909</v>
+        <v>2266199373.095237</v>
       </c>
       <c r="F16" t="n">
-        <v>0.004100751587727743</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>26</v>
+        <v>0.09569779028957839</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.04078528067835802</v>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>14</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1133099738.162286</v>
       </c>
     </row>
     <row r="17">
@@ -900,22 +1000,28 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>6519321591.306093</v>
+        <v>4426623352.00387</v>
       </c>
       <c r="F17" t="n">
-        <v>0.002065857723617558</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>18</v>
+        <v>0.1145451279794733</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.03999954000104306</v>
+      </c>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>24</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2213311689.440623</v>
       </c>
     </row>
     <row r="18">
@@ -928,22 +1034,28 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
-        <v>536</v>
+        <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>6150410964.309299</v>
+        <v>3217484062.996408</v>
       </c>
       <c r="F18" t="n">
-        <v>0.001117164525526375</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>23</v>
+        <v>0.1392471018480438</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.02515431078355867</v>
+      </c>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>27</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1608742045.890241</v>
       </c>
     </row>
     <row r="19">
@@ -956,22 +1068,28 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
-        <v>512</v>
+        <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>3617324597.321394</v>
+        <v>1345274057.499582</v>
       </c>
       <c r="F19" t="n">
-        <v>0.001443304048453701</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
+        <v>0.1808222278562523</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.02546083184661197</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>672637141.9266675</v>
       </c>
     </row>
     <row r="20">
@@ -984,22 +1102,28 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
-        <v>508</v>
+        <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>4819178511.849263</v>
+        <v>1781195780.325047</v>
       </c>
       <c r="F20" t="n">
-        <v>0.00131492459302072</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
+        <v>0.1571124564615171</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.03039271566389413</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
         <v>10</v>
+      </c>
+      <c r="J20" t="n">
+        <v>890597939.7423667</v>
       </c>
     </row>
     <row r="21">
@@ -1012,22 +1136,28 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>6061772527.598347</v>
+        <v>1820260120.793142</v>
       </c>
       <c r="F21" t="n">
-        <v>0.003692138496115049</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>15</v>
+        <v>0.07042458663032512</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.03138791105846696</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>8</v>
+      </c>
+      <c r="J21" t="n">
+        <v>910130113.4050424</v>
       </c>
     </row>
     <row r="22">
@@ -1043,19 +1173,25 @@
         <v>3</v>
       </c>
       <c r="D22" t="n">
-        <v>441</v>
+        <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>5469813878.131227</v>
+        <v>3741438889.383767</v>
       </c>
       <c r="F22" t="n">
-        <v>0.005662772825325603</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>5</v>
+        <v>0.1280032176389532</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.05584243072197321</v>
+      </c>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>23</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1870719461.740452</v>
       </c>
     </row>
     <row r="23">
@@ -1068,22 +1204,28 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
-        <v>439</v>
+        <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>7078414740.985222</v>
+        <v>1184459667.562565</v>
       </c>
       <c r="F23" t="n">
-        <v>0.00187115122998753</v>
-      </c>
-      <c r="G23" t="b">
-        <v>1</v>
-      </c>
-      <c r="H23" t="n">
-        <v>15</v>
+        <v>0.164793749312512</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.04780143418816173</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>592229872.797447</v>
       </c>
     </row>
     <row r="24">
@@ -1096,22 +1238,28 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
-        <v>513</v>
+        <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>7307951122.775421</v>
+        <v>3610078432.020315</v>
       </c>
       <c r="F24" t="n">
-        <v>0.00456736617813682</v>
-      </c>
-      <c r="G24" t="b">
-        <v>1</v>
-      </c>
-      <c r="H24" t="n">
-        <v>21</v>
+        <v>0.1402557862068063</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.03716485613407454</v>
+      </c>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>24</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1805039210.147786</v>
       </c>
     </row>
     <row r="25">
@@ -1124,22 +1272,28 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
-        <v>473</v>
+        <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>4720639524.596092</v>
+        <v>1048908002.420859</v>
       </c>
       <c r="F25" t="n">
-        <v>0.003920106649690129</v>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>18</v>
+        <v>0.1208413024392122</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.02521999131348325</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>524454053.8559813</v>
       </c>
     </row>
     <row r="26">
@@ -1152,22 +1306,28 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
-        <v>462</v>
+        <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>4012074843.362727</v>
+        <v>1188826582.51421</v>
       </c>
       <c r="F26" t="n">
-        <v>0.001446838290396227</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
+        <v>0.1125922956919402</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.03065367353619829</v>
+      </c>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>594413309.4489334</v>
       </c>
     </row>
     <row r="27">
@@ -1180,22 +1340,28 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
-        <v>517</v>
+        <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>8447894272.079785</v>
+        <v>4336961745.790009</v>
       </c>
       <c r="F27" t="n">
-        <v>0.003328309169958379</v>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>23</v>
+        <v>0.1209370957108271</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.02296292879316287</v>
+      </c>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>19</v>
+      </c>
+      <c r="J27" t="n">
+        <v>2168480866.221373</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1374,28 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>6930881404.19311</v>
+        <v>2389781931.118563</v>
       </c>
       <c r="F28" t="n">
-        <v>0.005365991746497446</v>
-      </c>
-      <c r="G28" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>21</v>
+        <v>0.1337092836153651</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.04925741258255211</v>
+      </c>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>26</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1194890923.715712</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1408,28 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
-        <v>504</v>
+        <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>6395815034.641234</v>
+        <v>4360152848.731653</v>
       </c>
       <c r="F29" t="n">
-        <v>0.001488871679490555</v>
-      </c>
-      <c r="G29" t="b">
+        <v>0.1257795566560444</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.02938203217746226</v>
+      </c>
+      <c r="H29" t="b">
         <v>1</v>
       </c>
-      <c r="H29" t="n">
-        <v>20</v>
+      <c r="I29" t="n">
+        <v>38</v>
+      </c>
+      <c r="J29" t="n">
+        <v>2180076416.234692</v>
       </c>
     </row>
     <row r="30">
@@ -1264,22 +1442,28 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
-        <v>564</v>
+        <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>5522487182.047454</v>
+        <v>1599299001.196347</v>
       </c>
       <c r="F30" t="n">
-        <v>0.003120352937565361</v>
-      </c>
-      <c r="G30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H30" t="n">
-        <v>25</v>
+        <v>0.1331132533899637</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.03995293188508256</v>
+      </c>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>799649492.3408881</v>
       </c>
     </row>
     <row r="31">
@@ -1292,22 +1476,28 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
-        <v>457</v>
+        <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>4945855605.060969</v>
+        <v>989000097.8500308</v>
       </c>
       <c r="F31" t="n">
-        <v>0.002156660386047225</v>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>16</v>
+        <v>0.1101324761329076</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.04282890152869497</v>
+      </c>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>494500049.9657043</v>
       </c>
     </row>
     <row r="32">
@@ -1320,22 +1510,28 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
-        <v>574</v>
+        <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>5287085382.274623</v>
+        <v>1728733360.594169</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0008988950737726603</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
+        <v>0.1118924263271674</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.02938808436435401</v>
+      </c>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>864366795.9498131</v>
       </c>
     </row>
     <row r="33">
@@ -1351,19 +1547,25 @@
         <v>4</v>
       </c>
       <c r="D33" t="n">
-        <v>470</v>
+        <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>7584909082.222813</v>
+        <v>3091166023.333163</v>
       </c>
       <c r="F33" t="n">
-        <v>0.002200676444288041</v>
-      </c>
-      <c r="G33" t="b">
-        <v>0</v>
-      </c>
-      <c r="H33" t="n">
-        <v>18</v>
+        <v>0.1470895613274119</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.04136283855755324</v>
+      </c>
+      <c r="H33" t="b">
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>23</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1545582999.435097</v>
       </c>
     </row>
     <row r="34">
@@ -1376,22 +1578,28 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
-        <v>560</v>
+        <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>5357759066.894677</v>
+        <v>1562525882.615193</v>
       </c>
       <c r="F34" t="n">
-        <v>0.004600542600411235</v>
-      </c>
-      <c r="G34" t="b">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>25</v>
+        <v>0.07494452723399886</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.02369955180266653</v>
+      </c>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>781262886.8191123</v>
       </c>
     </row>
     <row r="35">
@@ -1404,22 +1612,28 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
-        <v>514</v>
+        <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>4418428563.138863</v>
+        <v>989758861.8917584</v>
       </c>
       <c r="F35" t="n">
-        <v>0.002060115625252186</v>
-      </c>
-      <c r="G35" t="b">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>21</v>
+        <v>0.08917800626827581</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.04447224186978632</v>
+      </c>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>494879451.6878081</v>
       </c>
     </row>
     <row r="36">
@@ -1432,22 +1646,28 @@
         </is>
       </c>
       <c r="C36" t="n">
+        <v>3</v>
+      </c>
+      <c r="D36" t="n">
+        <v>442</v>
+      </c>
+      <c r="E36" t="n">
+        <v>2994557785.130805</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.1391731669828939</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.02784849626090529</v>
+      </c>
+      <c r="H36" t="b">
         <v>1</v>
       </c>
-      <c r="D36" t="n">
-        <v>538</v>
-      </c>
-      <c r="E36" t="n">
-        <v>8095429671.890658</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0.003017902860677453</v>
-      </c>
-      <c r="G36" t="b">
-        <v>1</v>
-      </c>
-      <c r="H36" t="n">
-        <v>23</v>
+      <c r="I36" t="n">
+        <v>20</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1497278874.82916</v>
       </c>
     </row>
     <row r="37">
@@ -1460,22 +1680,28 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
-        <v>573</v>
+        <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>5621302659.433045</v>
+        <v>2202115147.131173</v>
       </c>
       <c r="F37" t="n">
-        <v>0.004736860310969637</v>
-      </c>
-      <c r="G37" t="b">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>20</v>
+        <v>0.07297047499797403</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.03467237334733611</v>
+      </c>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>21</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1101057628.585773</v>
       </c>
     </row>
     <row r="38">
@@ -1488,22 +1714,28 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
-        <v>461</v>
+        <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>4848233918.063805</v>
+        <v>2186219172.194996</v>
       </c>
       <c r="F38" t="n">
-        <v>0.003372783549559397</v>
-      </c>
-      <c r="G38" t="b">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
+        <v>0.1210066570422658</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.03357728716182126</v>
+      </c>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>1093109538.332708</v>
       </c>
     </row>
     <row r="39">
@@ -1519,19 +1751,25 @@
         <v>2</v>
       </c>
       <c r="D39" t="n">
-        <v>470</v>
+        <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>4946382616.900686</v>
+        <v>1642528565.391269</v>
       </c>
       <c r="F39" t="n">
-        <v>0.00199515911486824</v>
-      </c>
-      <c r="G39" t="b">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>13</v>
+        <v>0.1187752023244221</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.0225784832300595</v>
+      </c>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>821264331.4374629</v>
       </c>
     </row>
     <row r="40">
@@ -1544,22 +1782,28 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
-        <v>523</v>
+        <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>5338121481.473583</v>
+        <v>1712084870.269159</v>
       </c>
       <c r="F40" t="n">
-        <v>0.003703557004907116</v>
-      </c>
-      <c r="G40" t="b">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>26</v>
+        <v>0.1504941901263336</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.04504682110729345</v>
+      </c>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>856042348.1508008</v>
       </c>
     </row>
     <row r="41">
@@ -1572,22 +1816,28 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
-        <v>540</v>
+        <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>5059783410.49642</v>
+        <v>2644732937.267307</v>
       </c>
       <c r="F41" t="n">
-        <v>0.001233075542584408</v>
-      </c>
-      <c r="G41" t="b">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>24</v>
+        <v>0.1066471465175018</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.03217999667301889</v>
+      </c>
+      <c r="H41" t="b">
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>22</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1322366479.700063</v>
       </c>
     </row>
     <row r="42">
@@ -1600,22 +1850,28 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4561820612.193309</v>
+        <v>3207288592.593829</v>
       </c>
       <c r="F42" t="n">
-        <v>0.004373060522037031</v>
-      </c>
-      <c r="G42" t="b">
-        <v>0</v>
-      </c>
-      <c r="H42" t="n">
-        <v>20</v>
+        <v>0.1155709163664392</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.04287264222618705</v>
+      </c>
+      <c r="H42" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>27</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1603644270.918895</v>
       </c>
     </row>
     <row r="43">
@@ -1628,22 +1884,28 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
-        <v>493</v>
+        <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>6555126461.678347</v>
+        <v>2321028594.084193</v>
       </c>
       <c r="F43" t="n">
-        <v>0.004419793306226057</v>
-      </c>
-      <c r="G43" t="b">
-        <v>1</v>
-      </c>
-      <c r="H43" t="n">
-        <v>19</v>
+        <v>0.166433634353712</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.02053611022822982</v>
+      </c>
+      <c r="H43" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>29</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1160514363.624113</v>
       </c>
     </row>
     <row r="44">
@@ -1656,22 +1918,28 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
-        <v>523</v>
+        <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>4837446716.251074</v>
+        <v>2300916612.117744</v>
       </c>
       <c r="F44" t="n">
-        <v>0.001693400578396924</v>
-      </c>
-      <c r="G44" t="b">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>22</v>
+        <v>0.09095612889398456</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.03695667883374158</v>
+      </c>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>1150458472.357463</v>
       </c>
     </row>
     <row r="45">
@@ -1684,22 +1952,28 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
-        <v>520</v>
+        <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>4840929516.517081</v>
+        <v>2467224450.743505</v>
       </c>
       <c r="F45" t="n">
-        <v>0.001426239123881296</v>
-      </c>
-      <c r="G45" t="b">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>3</v>
+        <v>0.1720988581496598</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.04487093858642051</v>
+      </c>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>1233612263.224968</v>
       </c>
     </row>
     <row r="46">
@@ -1712,22 +1986,28 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
-        <v>406</v>
+        <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>7456056141.839622</v>
+        <v>3977002394.70721</v>
       </c>
       <c r="F46" t="n">
-        <v>0.004701760838705876</v>
-      </c>
-      <c r="G46" t="b">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>13</v>
+        <v>0.1161279057934558</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.05638901436957973</v>
+      </c>
+      <c r="H46" t="b">
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>29</v>
+      </c>
+      <c r="J46" t="n">
+        <v>1988501165.488737</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +2020,28 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
-        <v>368</v>
+        <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>6304506390.393703</v>
+        <v>4202647817.032233</v>
       </c>
       <c r="F47" t="n">
-        <v>0.003304548771833159</v>
-      </c>
-      <c r="G47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H47" t="n">
-        <v>12</v>
+        <v>0.1256702249114641</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.04690645194065099</v>
+      </c>
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>22</v>
+      </c>
+      <c r="J47" t="n">
+        <v>2101323919.079587</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2054,28 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
-        <v>431</v>
+        <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>6452081615.579292</v>
+        <v>3080318406.241097</v>
       </c>
       <c r="F48" t="n">
-        <v>0.002808406446587349</v>
-      </c>
-      <c r="G48" t="b">
-        <v>0</v>
-      </c>
-      <c r="H48" t="n">
-        <v>15</v>
+        <v>0.09800853402611484</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.03873349897981411</v>
+      </c>
+      <c r="H48" t="b">
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>27</v>
+      </c>
+      <c r="J48" t="n">
+        <v>1540159290.824782</v>
       </c>
     </row>
     <row r="49">
@@ -1796,22 +2088,28 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
-        <v>581</v>
+        <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>3605769464.0646</v>
+        <v>1640015698.324605</v>
       </c>
       <c r="F49" t="n">
-        <v>0.005530311998714701</v>
-      </c>
-      <c r="G49" t="b">
-        <v>0</v>
-      </c>
-      <c r="H49" t="n">
-        <v>2</v>
+        <v>0.1718577359740421</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.03942526927821054</v>
+      </c>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>820007859.3183514</v>
       </c>
     </row>
     <row r="50">
@@ -1827,19 +2125,25 @@
         <v>3</v>
       </c>
       <c r="D50" t="n">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>6299254163.27217</v>
+        <v>3908653504.162359</v>
       </c>
       <c r="F50" t="n">
-        <v>0.002663333654659661</v>
-      </c>
-      <c r="G50" t="b">
-        <v>1</v>
-      </c>
-      <c r="H50" t="n">
-        <v>23</v>
+        <v>0.1100955030510784</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.05154680111911565</v>
+      </c>
+      <c r="H50" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>28</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1954326747.171483</v>
       </c>
     </row>
     <row r="51">
@@ -1852,22 +2156,28 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
-        <v>394</v>
+        <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>3563377676.138299</v>
+        <v>1443126121.999731</v>
       </c>
       <c r="F51" t="n">
-        <v>0.005397154622751859</v>
-      </c>
-      <c r="G51" t="b">
-        <v>0</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
+        <v>0.1360598795249906</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.05067202275530196</v>
+      </c>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>721563073.0602199</v>
       </c>
     </row>
     <row r="52">
@@ -1880,22 +2190,28 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
-        <v>497</v>
+        <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>6746668283.49087</v>
+        <v>3490919202.322186</v>
       </c>
       <c r="F52" t="n">
-        <v>0.00164844345151082</v>
-      </c>
-      <c r="G52" t="b">
-        <v>1</v>
-      </c>
-      <c r="H52" t="n">
-        <v>19</v>
+        <v>0.09057449098256209</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.05353151547007597</v>
+      </c>
+      <c r="H52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>34</v>
+      </c>
+      <c r="J52" t="n">
+        <v>1745459687.518183</v>
       </c>
     </row>
     <row r="53">
@@ -1908,22 +2224,28 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
-        <v>443</v>
+        <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>6239701680.18175</v>
+        <v>2505682046.623413</v>
       </c>
       <c r="F53" t="n">
-        <v>0.002951080555339269</v>
-      </c>
-      <c r="G53" t="b">
-        <v>1</v>
-      </c>
-      <c r="H53" t="n">
-        <v>15</v>
+        <v>0.1477835291758462</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.03277646395436496</v>
+      </c>
+      <c r="H53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>23</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1252841089.760924</v>
       </c>
     </row>
     <row r="54">
@@ -1936,22 +2258,28 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
-        <v>591</v>
+        <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>5004532958.569479</v>
+        <v>3150221241.273538</v>
       </c>
       <c r="F54" t="n">
-        <v>0.004412893250947418</v>
-      </c>
-      <c r="G54" t="b">
-        <v>0</v>
-      </c>
-      <c r="H54" t="n">
-        <v>21</v>
+        <v>0.1172890937872167</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.04386542797661615</v>
+      </c>
+      <c r="H54" t="b">
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>27</v>
+      </c>
+      <c r="J54" t="n">
+        <v>1575110617.92099</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2292,28 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
-        <v>568</v>
+        <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>6137998780.294052</v>
+        <v>3873934991.259315</v>
       </c>
       <c r="F55" t="n">
-        <v>0.003472324429068288</v>
-      </c>
-      <c r="G55" t="b">
-        <v>0</v>
-      </c>
-      <c r="H55" t="n">
-        <v>26</v>
+        <v>0.1691684238262811</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.02013956568987578</v>
+      </c>
+      <c r="H55" t="b">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>22</v>
+      </c>
+      <c r="J55" t="n">
+        <v>1936967464.880132</v>
       </c>
     </row>
     <row r="56">
@@ -1992,22 +2326,28 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
-        <v>467</v>
+        <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>5629111005.24184</v>
+        <v>1239186109.267297</v>
       </c>
       <c r="F56" t="n">
-        <v>0.002375719210176403</v>
-      </c>
-      <c r="G56" t="b">
-        <v>0</v>
-      </c>
-      <c r="H56" t="n">
-        <v>12</v>
+        <v>0.159522572461186</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.0486590909769261</v>
+      </c>
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>619593135.454022</v>
       </c>
     </row>
     <row r="57">
@@ -2020,22 +2360,28 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
-        <v>475</v>
+        <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>7544289808.837274</v>
+        <v>2905984497.780837</v>
       </c>
       <c r="F57" t="n">
-        <v>0.003540039421091766</v>
-      </c>
-      <c r="G57" t="b">
-        <v>0</v>
-      </c>
-      <c r="H57" t="n">
-        <v>21</v>
+        <v>0.1333661831741638</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.02697136415444229</v>
+      </c>
+      <c r="H57" t="b">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>26</v>
+      </c>
+      <c r="J57" t="n">
+        <v>1452992245.340844</v>
       </c>
     </row>
     <row r="58">
@@ -2048,22 +2394,28 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
-        <v>484</v>
+        <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>6174647795.574138</v>
+        <v>1183782508.835403</v>
       </c>
       <c r="F58" t="n">
-        <v>0.00246570487108018</v>
-      </c>
-      <c r="G58" t="b">
-        <v>1</v>
-      </c>
-      <c r="H58" t="n">
-        <v>18</v>
+        <v>0.1513499030662148</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.02427631699052276</v>
+      </c>
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>591891314.3060563</v>
       </c>
     </row>
     <row r="59">
@@ -2076,22 +2428,28 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
-        <v>352</v>
+        <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>7636081816.822704</v>
+        <v>3662022285.080029</v>
       </c>
       <c r="F59" t="n">
-        <v>0.004417999529226098</v>
-      </c>
-      <c r="G59" t="b">
-        <v>0</v>
-      </c>
-      <c r="H59" t="n">
-        <v>11</v>
+        <v>0.08688068420363834</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.04772968986636038</v>
+      </c>
+      <c r="H59" t="b">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>23</v>
+      </c>
+      <c r="J59" t="n">
+        <v>1831011134.684054</v>
       </c>
     </row>
     <row r="60">
@@ -2104,22 +2462,28 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
-        <v>424</v>
+        <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>5010929802.337248</v>
+        <v>3253022363.839909</v>
       </c>
       <c r="F60" t="n">
-        <v>0.004234781810948767</v>
-      </c>
-      <c r="G60" t="b">
-        <v>0</v>
-      </c>
-      <c r="H60" t="n">
+        <v>0.147661070777426</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.02935807078949473</v>
+      </c>
+      <c r="H60" t="b">
         <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>24</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1626511278.71873</v>
       </c>
     </row>
     <row r="61">
@@ -2132,22 +2496,28 @@
         </is>
       </c>
       <c r="C61" t="n">
+        <v>5</v>
+      </c>
+      <c r="D61" t="n">
+        <v>517</v>
+      </c>
+      <c r="E61" t="n">
+        <v>3377238240.516794</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.1210324865031109</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.02833998769677357</v>
+      </c>
+      <c r="H61" t="b">
         <v>1</v>
       </c>
-      <c r="D61" t="n">
-        <v>488</v>
-      </c>
-      <c r="E61" t="n">
-        <v>6115751390.975063</v>
-      </c>
-      <c r="F61" t="n">
-        <v>0.005279578917527577</v>
-      </c>
-      <c r="G61" t="b">
-        <v>0</v>
-      </c>
-      <c r="H61" t="n">
-        <v>19</v>
+      <c r="I61" t="n">
+        <v>28</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1688619065.062027</v>
       </c>
     </row>
     <row r="62">
@@ -2160,22 +2530,28 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
-        <v>441</v>
+        <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>6440511544.146926</v>
+        <v>1397452012.151433</v>
       </c>
       <c r="F62" t="n">
-        <v>0.003811733806070247</v>
-      </c>
-      <c r="G62" t="b">
-        <v>1</v>
-      </c>
-      <c r="H62" t="n">
-        <v>13</v>
+        <v>0.1922827588307988</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.04337730458079626</v>
+      </c>
+      <c r="H62" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>698725973.6804864</v>
       </c>
     </row>
     <row r="63">
@@ -2188,22 +2564,28 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
-        <v>490</v>
+        <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>8308656463.859516</v>
+        <v>4122763265.583557</v>
       </c>
       <c r="F63" t="n">
-        <v>0.004156840600348004</v>
-      </c>
-      <c r="G63" t="b">
-        <v>0</v>
-      </c>
-      <c r="H63" t="n">
-        <v>19</v>
+        <v>0.1013760668349638</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.02952618660915553</v>
+      </c>
+      <c r="H63" t="b">
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>23</v>
+      </c>
+      <c r="J63" t="n">
+        <v>2061381689.610932</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2598,28 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
-        <v>545</v>
+        <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3425140436.589473</v>
+        <v>5351472888.071146</v>
       </c>
       <c r="F64" t="n">
-        <v>0.004996437652059802</v>
-      </c>
-      <c r="G64" t="b">
-        <v>0</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
+        <v>0.1158986304260139</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.02148388151700738</v>
+      </c>
+      <c r="H64" t="b">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>26</v>
+      </c>
+      <c r="J64" t="n">
+        <v>2675736574.853038</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2632,28 @@
         </is>
       </c>
       <c r="C65" t="n">
+        <v>3</v>
+      </c>
+      <c r="D65" t="n">
+        <v>527</v>
+      </c>
+      <c r="E65" t="n">
+        <v>3683049591.906265</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.174402074966163</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.02818424756996806</v>
+      </c>
+      <c r="H65" t="b">
         <v>1</v>
       </c>
-      <c r="D65" t="n">
-        <v>507</v>
-      </c>
-      <c r="E65" t="n">
-        <v>6103388441.938045</v>
-      </c>
-      <c r="F65" t="n">
-        <v>0.005200962108622149</v>
-      </c>
-      <c r="G65" t="b">
-        <v>0</v>
-      </c>
-      <c r="H65" t="n">
-        <v>21</v>
+      <c r="I65" t="n">
+        <v>29</v>
+      </c>
+      <c r="J65" t="n">
+        <v>1841524833.346259</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2666,28 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5303368142.512423</v>
+        <v>4393084777.617136</v>
       </c>
       <c r="F66" t="n">
-        <v>0.002653656604140743</v>
-      </c>
-      <c r="G66" t="b">
-        <v>0</v>
-      </c>
-      <c r="H66" t="n">
-        <v>17</v>
+        <v>0.1331413848816838</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.03610691951176151</v>
+      </c>
+      <c r="H66" t="b">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>24</v>
+      </c>
+      <c r="J66" t="n">
+        <v>2196542383.349854</v>
       </c>
     </row>
     <row r="67">
@@ -2300,22 +2700,28 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
-        <v>411</v>
+        <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>5862025795.960999</v>
+        <v>3085683523.24602</v>
       </c>
       <c r="F67" t="n">
-        <v>0.00507545538228916</v>
-      </c>
-      <c r="G67" t="b">
-        <v>0</v>
-      </c>
-      <c r="H67" t="n">
-        <v>13</v>
+        <v>0.07660303617596435</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.03823325713802357</v>
+      </c>
+      <c r="H67" t="b">
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>26</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1542841772.581927</v>
       </c>
     </row>
     <row r="68">
@@ -2328,22 +2734,28 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
-        <v>462</v>
+        <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>8188727717.967453</v>
+        <v>4913207792.348225</v>
       </c>
       <c r="F68" t="n">
-        <v>0.002034158492861647</v>
-      </c>
-      <c r="G68" t="b">
-        <v>0</v>
-      </c>
-      <c r="H68" t="n">
-        <v>17</v>
+        <v>0.1447482252536834</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.04936983091048882</v>
+      </c>
+      <c r="H68" t="b">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>26</v>
+      </c>
+      <c r="J68" t="n">
+        <v>2456603947.219818</v>
       </c>
     </row>
     <row r="69">
@@ -2356,22 +2768,28 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>6788875309.64396</v>
+        <v>1965846376.539658</v>
       </c>
       <c r="F69" t="n">
-        <v>0.0009783066568515651</v>
-      </c>
-      <c r="G69" t="b">
-        <v>1</v>
-      </c>
-      <c r="H69" t="n">
-        <v>18</v>
+        <v>0.1289934573258426</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.04831014448653297</v>
+      </c>
+      <c r="H69" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>982923188.7046303</v>
       </c>
     </row>
     <row r="70">
@@ -2384,22 +2802,28 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>8125027947.167851</v>
+        <v>2651436186.003578</v>
       </c>
       <c r="F70" t="n">
-        <v>0.003839717399618697</v>
-      </c>
-      <c r="G70" t="b">
-        <v>0</v>
-      </c>
-      <c r="H70" t="n">
-        <v>23</v>
+        <v>0.08754143633849928</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.03881496347654819</v>
+      </c>
+      <c r="H70" t="b">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>24</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1325718047.216686</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2836,28 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
-        <v>474</v>
+        <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4530824004.681056</v>
+        <v>4528332614.528449</v>
       </c>
       <c r="F71" t="n">
-        <v>0.002803395578878938</v>
-      </c>
-      <c r="G71" t="b">
-        <v>0</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
+        <v>0.1387748198783055</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.02159624650856554</v>
+      </c>
+      <c r="H71" t="b">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>30</v>
+      </c>
+      <c r="J71" t="n">
+        <v>2264166377.671782</v>
       </c>
     </row>
     <row r="72">
@@ -2440,22 +2870,28 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
-        <v>460</v>
+        <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>6171829987.238614</v>
+        <v>1661870528.775817</v>
       </c>
       <c r="F72" t="n">
-        <v>0.002330913636856803</v>
-      </c>
-      <c r="G72" t="b">
-        <v>1</v>
-      </c>
-      <c r="H72" t="n">
-        <v>18</v>
+        <v>0.07744003179881155</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.04871441939394083</v>
+      </c>
+      <c r="H72" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>830935265.1801602</v>
       </c>
     </row>
     <row r="73">
@@ -2471,19 +2907,25 @@
         <v>2</v>
       </c>
       <c r="D73" t="n">
-        <v>480</v>
+        <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>7418322290.275129</v>
+        <v>2539401470.375885</v>
       </c>
       <c r="F73" t="n">
-        <v>0.001202839397395848</v>
-      </c>
-      <c r="G73" t="b">
-        <v>0</v>
-      </c>
-      <c r="H73" t="n">
-        <v>20</v>
+        <v>0.08983608147294629</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.03859127635437803</v>
+      </c>
+      <c r="H73" t="b">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>31</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1269700773.238627</v>
       </c>
     </row>
     <row r="74">
@@ -2496,22 +2938,28 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>5059233490.603909</v>
+        <v>3914322428.785278</v>
       </c>
       <c r="F74" t="n">
-        <v>0.005194928519772187</v>
-      </c>
-      <c r="G74" t="b">
-        <v>0</v>
-      </c>
-      <c r="H74" t="n">
-        <v>17</v>
+        <v>0.1587343611046287</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.02709759446811215</v>
+      </c>
+      <c r="H74" t="b">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>29</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1957161200.694272</v>
       </c>
     </row>
     <row r="75">
@@ -2524,22 +2972,28 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
-        <v>441</v>
+        <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>5968067544.468025</v>
+        <v>2398771619.221764</v>
       </c>
       <c r="F75" t="n">
-        <v>0.003709607356876146</v>
-      </c>
-      <c r="G75" t="b">
-        <v>0</v>
-      </c>
-      <c r="H75" t="n">
-        <v>16</v>
+        <v>0.1192900675410602</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.03054739444503086</v>
+      </c>
+      <c r="H75" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>1199385736.276788</v>
       </c>
     </row>
     <row r="76">
@@ -2555,19 +3009,25 @@
         <v>5</v>
       </c>
       <c r="D76" t="n">
-        <v>459</v>
+        <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>6725354276.184203</v>
+        <v>5046553574.389547</v>
       </c>
       <c r="F76" t="n">
-        <v>0.002399860008844335</v>
-      </c>
-      <c r="G76" t="b">
-        <v>0</v>
-      </c>
-      <c r="H76" t="n">
-        <v>17</v>
+        <v>0.09506018680995004</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.03310204153364568</v>
+      </c>
+      <c r="H76" t="b">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>18</v>
+      </c>
+      <c r="J76" t="n">
+        <v>2523276815.735038</v>
       </c>
     </row>
     <row r="77">
@@ -2580,22 +3040,28 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
-        <v>576</v>
+        <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>6684022278.516948</v>
+        <v>2298454766.277385</v>
       </c>
       <c r="F77" t="n">
-        <v>0.004006828665157724</v>
-      </c>
-      <c r="G77" t="b">
-        <v>0</v>
-      </c>
-      <c r="H77" t="n">
-        <v>29</v>
+        <v>0.1650730764935495</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.03114902132518597</v>
+      </c>
+      <c r="H77" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>1149227488.637731</v>
       </c>
     </row>
     <row r="78">
@@ -2608,22 +3074,28 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
-        <v>454</v>
+        <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>5006364780.962173</v>
+        <v>3713956120.629337</v>
       </c>
       <c r="F78" t="n">
-        <v>0.005139188603735256</v>
-      </c>
-      <c r="G78" t="b">
-        <v>0</v>
-      </c>
-      <c r="H78" t="n">
-        <v>19</v>
+        <v>0.1094345740190754</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.04051111755756921</v>
+      </c>
+      <c r="H78" t="b">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>29</v>
+      </c>
+      <c r="J78" t="n">
+        <v>1856978046.411077</v>
       </c>
     </row>
     <row r="79">
@@ -2636,22 +3108,28 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>8160565201.647838</v>
+        <v>1495915437.10474</v>
       </c>
       <c r="F79" t="n">
-        <v>0.001766227995594842</v>
-      </c>
-      <c r="G79" t="b">
-        <v>0</v>
-      </c>
-      <c r="H79" t="n">
-        <v>18</v>
+        <v>0.1671410684821834</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.03942047053622035</v>
+      </c>
+      <c r="H79" t="b">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>747957751.9284564</v>
       </c>
     </row>
     <row r="80">
@@ -2664,22 +3142,28 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
-        <v>573</v>
+        <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>7031109927.08491</v>
+        <v>3897519688.341372</v>
       </c>
       <c r="F80" t="n">
-        <v>0.002594471220372201</v>
-      </c>
-      <c r="G80" t="b">
-        <v>0</v>
-      </c>
-      <c r="H80" t="n">
-        <v>28</v>
+        <v>0.09611556446188844</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.02416313192284056</v>
+      </c>
+      <c r="H80" t="b">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>17</v>
+      </c>
+      <c r="J80" t="n">
+        <v>1948759838.463592</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3176,28 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>6255786796.647137</v>
+        <v>3989079099.516871</v>
       </c>
       <c r="F81" t="n">
-        <v>0.004408336840894199</v>
-      </c>
-      <c r="G81" t="b">
-        <v>1</v>
-      </c>
-      <c r="H81" t="n">
-        <v>14</v>
+        <v>0.09451257437625754</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.02805824412796856</v>
+      </c>
+      <c r="H81" t="b">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>20</v>
+      </c>
+      <c r="J81" t="n">
+        <v>1994539512.434608</v>
       </c>
     </row>
     <row r="82">
@@ -2723,19 +3213,25 @@
         <v>2</v>
       </c>
       <c r="D82" t="n">
-        <v>423</v>
+        <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>7000633146.185437</v>
+        <v>5644862122.70715</v>
       </c>
       <c r="F82" t="n">
-        <v>0.00418500894159398</v>
-      </c>
-      <c r="G82" t="b">
-        <v>0</v>
-      </c>
-      <c r="H82" t="n">
-        <v>16</v>
+        <v>0.1507668976743919</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.01986123001509775</v>
+      </c>
+      <c r="H82" t="b">
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>31</v>
+      </c>
+      <c r="J82" t="n">
+        <v>2822431009.172217</v>
       </c>
     </row>
     <row r="83">
@@ -2748,22 +3244,28 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
-        <v>504</v>
+        <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>8483375510.301415</v>
+        <v>1702533684.135443</v>
       </c>
       <c r="F83" t="n">
-        <v>0.003691254794533356</v>
-      </c>
-      <c r="G83" t="b">
-        <v>0</v>
-      </c>
-      <c r="H83" t="n">
-        <v>21</v>
+        <v>0.1512733409380772</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.0349513270312436</v>
+      </c>
+      <c r="H83" t="b">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>851266790.3070542</v>
       </c>
     </row>
     <row r="84">
@@ -2776,22 +3278,28 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
-        <v>524</v>
+        <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>5786897445.51953</v>
+        <v>2199937887.744437</v>
       </c>
       <c r="F84" t="n">
-        <v>0.005484211936025835</v>
-      </c>
-      <c r="G84" t="b">
-        <v>0</v>
-      </c>
-      <c r="H84" t="n">
-        <v>21</v>
+        <v>0.1194609185029953</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.04645290313072271</v>
+      </c>
+      <c r="H84" t="b">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>1099968919.514146</v>
       </c>
     </row>
     <row r="85">
@@ -2807,19 +3315,25 @@
         <v>4</v>
       </c>
       <c r="D85" t="n">
-        <v>512</v>
+        <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>4982740820.294628</v>
+        <v>3588816671.182148</v>
       </c>
       <c r="F85" t="n">
-        <v>0.003731145796414165</v>
-      </c>
-      <c r="G85" t="b">
-        <v>0</v>
-      </c>
-      <c r="H85" t="n">
+        <v>0.1424064478003123</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.05543116098762135</v>
+      </c>
+      <c r="H85" t="b">
         <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>31</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1794408460.658412</v>
       </c>
     </row>
     <row r="86">
@@ -2832,22 +3346,28 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>6825294486.803296</v>
+        <v>2408427718.84262</v>
       </c>
       <c r="F86" t="n">
-        <v>0.002311650171014862</v>
-      </c>
-      <c r="G86" t="b">
-        <v>1</v>
-      </c>
-      <c r="H86" t="n">
-        <v>21</v>
+        <v>0.119136714440912</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.02520137724964406</v>
+      </c>
+      <c r="H86" t="b">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>7</v>
+      </c>
+      <c r="J86" t="n">
+        <v>1204213943.756877</v>
       </c>
     </row>
     <row r="87">
@@ -2863,19 +3383,25 @@
         <v>3</v>
       </c>
       <c r="D87" t="n">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>3581493162.059635</v>
+        <v>1402784921.861549</v>
       </c>
       <c r="F87" t="n">
-        <v>0.001397620201330743</v>
-      </c>
-      <c r="G87" t="b">
-        <v>0</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
+        <v>0.1382426537610959</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.03111399786528199</v>
+      </c>
+      <c r="H87" t="b">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>701392568.4263431</v>
       </c>
     </row>
     <row r="88">
@@ -2888,22 +3414,28 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
-        <v>477</v>
+        <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>7387455516.336409</v>
+        <v>2963257655.100694</v>
       </c>
       <c r="F88" t="n">
-        <v>0.005804598051500675</v>
-      </c>
-      <c r="G88" t="b">
-        <v>0</v>
-      </c>
-      <c r="H88" t="n">
-        <v>18</v>
+        <v>0.1663599473574295</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.033781990186864</v>
+      </c>
+      <c r="H88" t="b">
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>31</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1481628854.275434</v>
       </c>
     </row>
     <row r="89">
@@ -2916,22 +3448,28 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
-        <v>473</v>
+        <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>7536563154.775172</v>
+        <v>2566231755.024667</v>
       </c>
       <c r="F89" t="n">
-        <v>0.003922050276129567</v>
-      </c>
-      <c r="G89" t="b">
-        <v>0</v>
-      </c>
-      <c r="H89" t="n">
-        <v>18</v>
+        <v>0.1312092416203869</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.03855102385658873</v>
+      </c>
+      <c r="H89" t="b">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>27</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1283115947.339337</v>
       </c>
     </row>
     <row r="90">
@@ -2944,22 +3482,28 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
-        <v>433</v>
+        <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>6594440438.13351</v>
+        <v>1750723453.350737</v>
       </c>
       <c r="F90" t="n">
-        <v>0.002588418689508482</v>
-      </c>
-      <c r="G90" t="b">
-        <v>1</v>
-      </c>
-      <c r="H90" t="n">
-        <v>14</v>
+        <v>0.1312221878024575</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.04747619698439957</v>
+      </c>
+      <c r="H90" t="b">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>875361751.2128559</v>
       </c>
     </row>
     <row r="91">
@@ -2972,22 +3516,28 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
-        <v>556</v>
+        <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>7852157421.997381</v>
+        <v>2014736443.959965</v>
       </c>
       <c r="F91" t="n">
-        <v>0.003871972610221929</v>
-      </c>
-      <c r="G91" t="b">
-        <v>0</v>
-      </c>
-      <c r="H91" t="n">
-        <v>25</v>
+        <v>0.1856710380976818</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.05016540822570965</v>
+      </c>
+      <c r="H91" t="b">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>1007368192.205561</v>
       </c>
     </row>
     <row r="92">
@@ -3003,19 +3553,25 @@
         <v>5</v>
       </c>
       <c r="D92" t="n">
-        <v>534</v>
+        <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>4054677979.882566</v>
+        <v>2392505265.826666</v>
       </c>
       <c r="F92" t="n">
-        <v>0.003962872482562066</v>
-      </c>
-      <c r="G92" t="b">
-        <v>0</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
+        <v>0.0875913706613131</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.02936498967887337</v>
+      </c>
+      <c r="H92" t="b">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
+        <v>17</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1196252608.653355</v>
       </c>
     </row>
     <row r="93">
@@ -3028,22 +3584,28 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
-        <v>588</v>
+        <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>7526666816.232608</v>
+        <v>4162879621.89681</v>
       </c>
       <c r="F93" t="n">
-        <v>0.001771097656507137</v>
-      </c>
-      <c r="G93" t="b">
-        <v>1</v>
-      </c>
-      <c r="H93" t="n">
-        <v>27</v>
+        <v>0.125887033844621</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.04369640109419959</v>
+      </c>
+      <c r="H93" t="b">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>24</v>
+      </c>
+      <c r="J93" t="n">
+        <v>2081439800.967984</v>
       </c>
     </row>
     <row r="94">
@@ -3056,22 +3618,28 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
-        <v>588</v>
+        <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>6202609270.317111</v>
+        <v>2254130334.883765</v>
       </c>
       <c r="F94" t="n">
-        <v>0.0009534060068832477</v>
-      </c>
-      <c r="G94" t="b">
-        <v>1</v>
-      </c>
-      <c r="H94" t="n">
-        <v>26</v>
+        <v>0.1609452260763462</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.04046200435410082</v>
+      </c>
+      <c r="H94" t="b">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>1127065198.766519</v>
       </c>
     </row>
     <row r="95">
@@ -3084,22 +3652,28 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
-        <v>511</v>
+        <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>5181632545.056654</v>
+        <v>2750806452.628203</v>
       </c>
       <c r="F95" t="n">
-        <v>0.001836376942394024</v>
-      </c>
-      <c r="G95" t="b">
-        <v>0</v>
-      </c>
-      <c r="H95" t="n">
-        <v>21</v>
+        <v>0.1365680926723218</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.0350483492327197</v>
+      </c>
+      <c r="H95" t="b">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
+        <v>20</v>
+      </c>
+      <c r="J95" t="n">
+        <v>1375403244.109737</v>
       </c>
     </row>
     <row r="96">
@@ -3112,22 +3686,28 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
-        <v>520</v>
+        <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>6836004880.58694</v>
+        <v>1579433450.258434</v>
       </c>
       <c r="F96" t="n">
-        <v>0.003171725162692153</v>
-      </c>
-      <c r="G96" t="b">
-        <v>0</v>
-      </c>
-      <c r="H96" t="n">
-        <v>22</v>
+        <v>0.1299884209159945</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.04515628478931789</v>
+      </c>
+      <c r="H96" t="b">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>789716756.9231026</v>
       </c>
     </row>
     <row r="97">
@@ -3143,19 +3723,25 @@
         <v>3</v>
       </c>
       <c r="D97" t="n">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>6004509515.544561</v>
+        <v>3776660115.624156</v>
       </c>
       <c r="F97" t="n">
-        <v>0.005830054621449669</v>
-      </c>
-      <c r="G97" t="b">
-        <v>0</v>
-      </c>
-      <c r="H97" t="n">
-        <v>21</v>
+        <v>0.1724446233797529</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.02874247075844837</v>
+      </c>
+      <c r="H97" t="b">
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>26</v>
+      </c>
+      <c r="J97" t="n">
+        <v>1888330096.144223</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3754,28 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
-        <v>616</v>
+        <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>8718515525.837034</v>
+        <v>2620206926.261498</v>
       </c>
       <c r="F98" t="n">
-        <v>0.004916697856896535</v>
-      </c>
-      <c r="G98" t="b">
-        <v>0</v>
-      </c>
-      <c r="H98" t="n">
-        <v>31</v>
+        <v>0.1133514210225776</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.02261026738720522</v>
+      </c>
+      <c r="H98" t="b">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>22</v>
+      </c>
+      <c r="J98" t="n">
+        <v>1310103421.983516</v>
       </c>
     </row>
     <row r="99">
@@ -3196,22 +3788,28 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
-        <v>567</v>
+        <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2738794401.375279</v>
+        <v>2526515834.504136</v>
       </c>
       <c r="F99" t="n">
-        <v>0.00594406631862887</v>
-      </c>
-      <c r="G99" t="b">
-        <v>0</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
+        <v>0.1054264087935498</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.03414094867050171</v>
+      </c>
+      <c r="H99" t="b">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
+        <v>25</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1263257868.785943</v>
       </c>
     </row>
     <row r="100">
@@ -3224,22 +3822,28 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
-        <v>422</v>
+        <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>5201153737.627164</v>
+        <v>4651239161.736334</v>
       </c>
       <c r="F100" t="n">
-        <v>0.002339768017132932</v>
-      </c>
-      <c r="G100" t="b">
-        <v>0</v>
-      </c>
-      <c r="H100" t="n">
-        <v>8</v>
+        <v>0.1731417896080247</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.01806090392492488</v>
+      </c>
+      <c r="H100" t="b">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>25</v>
+      </c>
+      <c r="J100" t="n">
+        <v>2325619703.444464</v>
       </c>
     </row>
     <row r="101">
@@ -3255,19 +3859,25 @@
         <v>2</v>
       </c>
       <c r="D101" t="n">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>8534060059.082643</v>
+        <v>2447536332.302983</v>
       </c>
       <c r="F101" t="n">
-        <v>0.001594097348995238</v>
-      </c>
-      <c r="G101" t="b">
-        <v>0</v>
-      </c>
-      <c r="H101" t="n">
-        <v>27</v>
+        <v>0.1916843748114639</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.04135670455393437</v>
+      </c>
+      <c r="H101" t="b">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>35</v>
+      </c>
+      <c r="J101" t="n">
+        <v>1223768182.133929</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_82.xlsx
+++ b/output/fit_clients/fit_round_82.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2154808204.737813</v>
+        <v>1883303872.718968</v>
       </c>
       <c r="F2" t="n">
-        <v>0.104727636360516</v>
+        <v>0.07231610757778774</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03456980359305661</v>
+        <v>0.03766158052098687</v>
       </c>
       <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1077404118.731807</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1697624446.790791</v>
+        <v>2150219927.611921</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1431592101660473</v>
+        <v>0.1467863208666138</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0414569777500557</v>
+        <v>0.04444606063350214</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>848812216.5478296</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4950470828.461853</v>
+        <v>5019016090.248013</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1035362376340296</v>
+        <v>0.1287728223030561</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0366462804586976</v>
+        <v>0.02605806432538713</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>30</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2475235495.654222</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -598,22 +570,16 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3097724544.415244</v>
+        <v>4235648819.054961</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0822212401209341</v>
+        <v>0.09674745016725578</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0477171484008445</v>
+        <v>0.04428525277818286</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>31</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1548862335.480994</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -632,22 +598,16 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2785223424.271479</v>
+        <v>1732860423.512671</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09890292013378289</v>
+        <v>0.1299279023191553</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05303150710198833</v>
+        <v>0.04608603318669111</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>12</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1392611656.666113</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2402543392.110114</v>
+        <v>2323685937.460888</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07313625267221244</v>
+        <v>0.09954499169719613</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04135309575090124</v>
+        <v>0.04534512929230462</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>25</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1201271718.378174</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2896587905.105489</v>
+        <v>3480732892.526174</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1514588357292684</v>
+        <v>0.2067160516520609</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02103200338089792</v>
+        <v>0.03088355721216084</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>28</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1448293999.404923</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2161782111.497125</v>
+        <v>1746249108.521084</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1547024415414019</v>
+        <v>0.1720683985434506</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02501274372790137</v>
+        <v>0.02520727336956853</v>
       </c>
       <c r="H9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1080891059.822023</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5695110424.5761</v>
+        <v>5049195684.287127</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1852766198147272</v>
+        <v>0.1643122875186861</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05170129011178125</v>
+        <v>0.04343119712648847</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>35</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2847555365.342708</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3203049427.860102</v>
+        <v>2975533768.90312</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1646992339317582</v>
+        <v>0.1555201195515641</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0325541817356271</v>
+        <v>0.03032291112684066</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>34</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1601524670.940556</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2996933672.568378</v>
+        <v>2722671380.9219</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1757596671735017</v>
+        <v>0.1383872425234754</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04420025659675529</v>
+        <v>0.0455756223965392</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>29</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1498466853.930476</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3722906540.715213</v>
+        <v>3267802783.306196</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0661776455946701</v>
+        <v>0.09064796181232568</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0226763143174776</v>
+        <v>0.02335891488298178</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>28</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1861453339.284613</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3107422088.550925</v>
+        <v>3714890207.492464</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1502195444426761</v>
+        <v>0.12089894396631</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02921633705267056</v>
+        <v>0.02781297884430203</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>26</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1553711070.859083</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1630420163.779581</v>
+        <v>1731248131.010033</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1063837236164465</v>
+        <v>0.09743463667417214</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03726881561531155</v>
+        <v>0.03204584392283721</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>815210196.8691721</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2266199373.095237</v>
+        <v>1884652163.025082</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09569779028957839</v>
+        <v>0.07768118822279103</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04078528067835802</v>
+        <v>0.04517087807818922</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>14</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1133099738.162286</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4426623352.00387</v>
+        <v>3430262248.669412</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1145451279794733</v>
+        <v>0.1552121654543479</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03999954000104306</v>
+        <v>0.03613937945323239</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>24</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2213311689.440623</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3217484062.996408</v>
+        <v>3091658260.531629</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1392471018480438</v>
+        <v>0.1211550139328754</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02515431078355867</v>
+        <v>0.03329038088271392</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>27</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1608742045.890241</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1345274057.499582</v>
+        <v>1073523958.763612</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1808222278562523</v>
+        <v>0.1917299633492565</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02546083184661197</v>
+        <v>0.02492914118340962</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>672637141.9266675</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1781195780.325047</v>
+        <v>2654472824.105579</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1571124564615171</v>
+        <v>0.1429377346086977</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03039271566389413</v>
+        <v>0.02779895811647333</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>10</v>
-      </c>
-      <c r="J20" t="n">
-        <v>890597939.7423667</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1820260120.793142</v>
+        <v>2374023437.460107</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07042458663032512</v>
+        <v>0.07600179093160717</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03138791105846696</v>
+        <v>0.03694346002304818</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>8</v>
-      </c>
-      <c r="J21" t="n">
-        <v>910130113.4050424</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3741438889.383767</v>
+        <v>3784649854.956593</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1280032176389532</v>
+        <v>0.1319396556438266</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05584243072197321</v>
+        <v>0.050485673047015</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>23</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1870719461.740452</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1184459667.562565</v>
+        <v>1131492365.697351</v>
       </c>
       <c r="F23" t="n">
-        <v>0.164793749312512</v>
+        <v>0.1335591962499347</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04780143418816173</v>
+        <v>0.04465831486907963</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>592229872.797447</v>
       </c>
     </row>
     <row r="24">
@@ -1244,22 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3610078432.020315</v>
+        <v>2907119063.094555</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1402557862068063</v>
+        <v>0.1252052846635022</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03716485613407454</v>
+        <v>0.02764525714666627</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>24</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1805039210.147786</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1048908002.420859</v>
+        <v>1375642297.958638</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1208413024392122</v>
+        <v>0.09837270846310109</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02521999131348325</v>
+        <v>0.02075545084433072</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>524454053.8559813</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1188826582.51421</v>
+        <v>1110120419.754742</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1125922956919402</v>
+        <v>0.1130411000477319</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03065367353619829</v>
+        <v>0.03592819753116164</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>594413309.4489334</v>
       </c>
     </row>
     <row r="27">
@@ -1346,22 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4336961745.790009</v>
+        <v>4573945455.965478</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1209370957108271</v>
+        <v>0.1402244505954374</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02296292879316287</v>
+        <v>0.02504263178416884</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>19</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2168480866.221373</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2389781931.118563</v>
+        <v>2776957756.69634</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1337092836153651</v>
+        <v>0.09945262281931075</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04925741258255211</v>
+        <v>0.03051966956557857</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>26</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1194890923.715712</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4360152848.731653</v>
+        <v>4837908625.067807</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1257795566560444</v>
+        <v>0.1188813457525464</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02938203217746226</v>
+        <v>0.03472074188770489</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>38</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2180076416.234692</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1599299001.196347</v>
+        <v>2093992111.997074</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1331132533899637</v>
+        <v>0.1397212512952289</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03995293188508256</v>
+        <v>0.02633327398866607</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>799649492.3408881</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>989000097.8500308</v>
+        <v>925137347.5971525</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1101324761329076</v>
+        <v>0.0777481172167438</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04282890152869497</v>
+        <v>0.03260017986768345</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>494500049.9657043</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1728733360.594169</v>
+        <v>1318935499.154186</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1118924263271674</v>
+        <v>0.08380136800755461</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02938808436435401</v>
+        <v>0.0238067575577767</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>864366795.9498131</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>3091166023.333163</v>
+        <v>2920264584.623113</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1470895613274119</v>
+        <v>0.1965557346064644</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04136283855755324</v>
+        <v>0.04165172473490322</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>23</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1545582999.435097</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1584,22 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1562525882.615193</v>
+        <v>1090322369.433625</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07494452723399886</v>
+        <v>0.09216829231670297</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02369955180266653</v>
+        <v>0.02235178700917582</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>781262886.8191123</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>989758861.8917584</v>
+        <v>1001373124.813102</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08917800626827581</v>
+        <v>0.109888462129902</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04447224186978632</v>
+        <v>0.04305384329464915</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>494879451.6878081</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2994557785.130805</v>
+        <v>2236591125.56468</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1391731669828939</v>
+        <v>0.1248580009495131</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02784849626090529</v>
+        <v>0.0234998412263715</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>20</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1497278874.82916</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2202115147.131173</v>
+        <v>2793993420.429009</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07297047499797403</v>
+        <v>0.08489024606203266</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03467237334733611</v>
+        <v>0.04126936698915658</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>21</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1101057628.585773</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2186219172.194996</v>
+        <v>1750230256.899152</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1210066570422658</v>
+        <v>0.09386803594674584</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03357728716182126</v>
+        <v>0.03867785917153565</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1093109538.332708</v>
       </c>
     </row>
     <row r="39">
@@ -1754,22 +1522,16 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1642528565.391269</v>
+        <v>1990934858.265175</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1187752023244221</v>
+        <v>0.1227631932835439</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0225784832300595</v>
+        <v>0.02398031932771138</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>821264331.4374629</v>
       </c>
     </row>
     <row r="40">
@@ -1788,22 +1550,16 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1712084870.269159</v>
+        <v>1515481532.870343</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1504941901263336</v>
+        <v>0.1072035455197065</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04504682110729345</v>
+        <v>0.05431073883557901</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>856042348.1508008</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2644732937.267307</v>
+        <v>2449976480.947062</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1066471465175018</v>
+        <v>0.130613648946422</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03217999667301889</v>
+        <v>0.03095909446977728</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>22</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1322366479.700063</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3207288592.593829</v>
+        <v>2619142081.00031</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1155709163664392</v>
+        <v>0.1175330770310786</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04287264222618705</v>
+        <v>0.04257954276496467</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>27</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1603644270.918895</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2321028594.084193</v>
+        <v>1891596230.696904</v>
       </c>
       <c r="F43" t="n">
-        <v>0.166433634353712</v>
+        <v>0.1811403051290012</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02053611022822982</v>
+        <v>0.01819402473677949</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>29</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1160514363.624113</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2300916612.117744</v>
+        <v>1482962020.924832</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09095612889398456</v>
+        <v>0.1003187654285933</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03695667883374158</v>
+        <v>0.03566320875452687</v>
       </c>
       <c r="H44" t="b">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1150458472.357463</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -1958,22 +1690,16 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2467224450.743505</v>
+        <v>2416369257.8989</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1720988581496598</v>
+        <v>0.150445780599844</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04487093858642051</v>
+        <v>0.04135677804099657</v>
       </c>
       <c r="H45" t="b">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1233612263.224968</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -1992,22 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3977002394.70721</v>
+        <v>5226916337.52161</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1161279057934558</v>
+        <v>0.1240055361693053</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05638901436957973</v>
+        <v>0.04970468519563032</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>29</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1988501165.488737</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4202647817.032233</v>
+        <v>3540454668.195072</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1256702249114641</v>
+        <v>0.1351185586184197</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04690645194065099</v>
+        <v>0.04260093193456065</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>22</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2101323919.079587</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3080318406.241097</v>
+        <v>3345549468.918349</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09800853402611484</v>
+        <v>0.1063320327072079</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03873349897981411</v>
+        <v>0.03207165648319479</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>27</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1540159290.824782</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1640015698.324605</v>
+        <v>1310524173.387658</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1718577359740421</v>
+        <v>0.1437924749715003</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03942526927821054</v>
+        <v>0.03464864221862473</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>820007859.3183514</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3908653504.162359</v>
+        <v>4011075683.590083</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1100955030510784</v>
+        <v>0.1246395382291619</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05154680111911565</v>
+        <v>0.05115477688106133</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>28</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1954326747.171483</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1443126121.999731</v>
+        <v>1064094408.918527</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1360598795249906</v>
+        <v>0.1798429730547892</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05067202275530196</v>
+        <v>0.04465309124414355</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>721563073.0602199</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3490919202.322186</v>
+        <v>3544945050.461991</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09057449098256209</v>
+        <v>0.1080251612558592</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05353151547007597</v>
+        <v>0.04533987309706689</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>34</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1745459687.518183</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2505682046.623413</v>
+        <v>2368918103.74012</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1477835291758462</v>
+        <v>0.1547064665067316</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03277646395436496</v>
+        <v>0.0306721391273933</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>23</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1252841089.760924</v>
       </c>
     </row>
     <row r="54">
@@ -2264,22 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3150221241.273538</v>
+        <v>4499814403.068151</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1172890937872167</v>
+        <v>0.1372398406036055</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04386542797661615</v>
+        <v>0.03413751283369209</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>27</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1575110617.92099</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3873934991.259315</v>
+        <v>4065294068.091131</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1691684238262811</v>
+        <v>0.1470084675812557</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02013956568987578</v>
+        <v>0.02659785987530106</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>22</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1936967464.880132</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1239186109.267297</v>
+        <v>1458072539.002268</v>
       </c>
       <c r="F56" t="n">
-        <v>0.159522572461186</v>
+        <v>0.1004417385589286</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0486590909769261</v>
+        <v>0.04681987075681714</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>619593135.454022</v>
       </c>
     </row>
     <row r="57">
@@ -2366,22 +2026,16 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2905984497.780837</v>
+        <v>3523773134.091571</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1333661831741638</v>
+        <v>0.1706796837300767</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02697136415444229</v>
+        <v>0.02566371829137883</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>26</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1452992245.340844</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1183782508.835403</v>
+        <v>1587426519.529765</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1513499030662148</v>
+        <v>0.1992021853056486</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02427631699052276</v>
+        <v>0.03256165977920353</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>591891314.3060563</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3662022285.080029</v>
+        <v>3542640277.638744</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08688068420363834</v>
+        <v>0.09077033920213941</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04772968986636038</v>
+        <v>0.03878535630477321</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>23</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1831011134.684054</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3253022363.839909</v>
+        <v>2755920250.466245</v>
       </c>
       <c r="F60" t="n">
-        <v>0.147661070777426</v>
+        <v>0.1644281834364412</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02935807078949473</v>
+        <v>0.02578488956803435</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>24</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1626511278.71873</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2502,22 +2138,16 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3377238240.516794</v>
+        <v>3206469285.600075</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1210324865031109</v>
+        <v>0.1553335912987182</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02833998769677357</v>
+        <v>0.02810472012511845</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>28</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1688619065.062027</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1397452012.151433</v>
+        <v>1445341191.114007</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1922827588307988</v>
+        <v>0.1895523053749379</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04337730458079626</v>
+        <v>0.04397482788670729</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>698725973.6804864</v>
       </c>
     </row>
     <row r="63">
@@ -2570,22 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4122763265.583557</v>
+        <v>4551367744.84847</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1013760668349638</v>
+        <v>0.09638260121146751</v>
       </c>
       <c r="G63" t="n">
-        <v>0.02952618660915553</v>
+        <v>0.03945852917238394</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>23</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2061381689.610932</v>
       </c>
     </row>
     <row r="64">
@@ -2604,22 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5351472888.071146</v>
+        <v>4171292801.842545</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1158986304260139</v>
+        <v>0.1567780212298642</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02148388151700738</v>
+        <v>0.02596664841620507</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>26</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2675736574.853038</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3683049591.906265</v>
+        <v>4067383311.402282</v>
       </c>
       <c r="F65" t="n">
-        <v>0.174402074966163</v>
+        <v>0.1506512671648121</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02818424756996806</v>
+        <v>0.02596060892539069</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>29</v>
-      </c>
-      <c r="J65" t="n">
-        <v>1841524833.346259</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2672,22 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4393084777.617136</v>
+        <v>5643724622.928659</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1331413848816838</v>
+        <v>0.1217360094375147</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03610691951176151</v>
+        <v>0.03112922680453753</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>24</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2196542383.349854</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3085683523.24602</v>
+        <v>2739287534.441913</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07660303617596435</v>
+        <v>0.08185083627790725</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03823325713802357</v>
+        <v>0.05054624643078325</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>26</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1542841772.581927</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2740,22 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4913207792.348225</v>
+        <v>5869050864.577399</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1447482252536834</v>
+        <v>0.132045038795194</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04936983091048882</v>
+        <v>0.03515685775530029</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>26</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2456603947.219818</v>
       </c>
     </row>
     <row r="69">
@@ -2774,22 +2362,16 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1965846376.539658</v>
+        <v>1872216179.879097</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1289934573258426</v>
+        <v>0.1409583174709481</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04831014448653297</v>
+        <v>0.05225361825147554</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>982923188.7046303</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2651436186.003578</v>
+        <v>2993068945.290006</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08754143633849928</v>
+        <v>0.1030893672132442</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03881496347654819</v>
+        <v>0.04025848010932759</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>24</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1325718047.216686</v>
       </c>
     </row>
     <row r="71">
@@ -2842,22 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4528332614.528449</v>
+        <v>4928300031.361227</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1387748198783055</v>
+        <v>0.1688314059809701</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02159624650856554</v>
+        <v>0.02589368817238075</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>30</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2264166377.671782</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2876,22 +2446,16 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1661870528.775817</v>
+        <v>1523034345.118854</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07744003179881155</v>
+        <v>0.09152967308597022</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04871441939394083</v>
+        <v>0.04848330052718812</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>830935265.1801602</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2539401470.375885</v>
+        <v>2606127476.427576</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08983608147294629</v>
+        <v>0.08233150428556142</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03859127635437803</v>
+        <v>0.05148362926649356</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>31</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1269700773.238627</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3914322428.785278</v>
+        <v>2439061456.023487</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1587343611046287</v>
+        <v>0.160554523761663</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02709759446811215</v>
+        <v>0.03125717780988508</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>29</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1957161200.694272</v>
       </c>
     </row>
     <row r="75">
@@ -2978,22 +2530,16 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2398771619.221764</v>
+        <v>2249079813.441583</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1192900675410602</v>
+        <v>0.1122895559515937</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03054739444503086</v>
+        <v>0.02718348735694471</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1199385736.276788</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5046553574.389547</v>
+        <v>4427717197.434367</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09506018680995004</v>
+        <v>0.09973389571034852</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03310204153364568</v>
+        <v>0.03339053829690378</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>18</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2523276815.735038</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2298454766.277385</v>
+        <v>2118913654.238944</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1650730764935495</v>
+        <v>0.1484743468395596</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03114902132518597</v>
+        <v>0.02572120233283368</v>
       </c>
       <c r="H77" t="b">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1149227488.637731</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3713956120.629337</v>
+        <v>3523599942.417423</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1094345740190754</v>
+        <v>0.1095974336798664</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04051111755756921</v>
+        <v>0.04997040645780263</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>29</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1856978046.411077</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1495915437.10474</v>
+        <v>1674563176.655828</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1671410684821834</v>
+        <v>0.1081850337398983</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03942047053622035</v>
+        <v>0.03512110108506868</v>
       </c>
       <c r="H79" t="b">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>747957751.9284564</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -3148,22 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3897519688.341372</v>
+        <v>5524995674.210943</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09611556446188844</v>
+        <v>0.0712690780686205</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02416313192284056</v>
+        <v>0.02851902678220549</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>17</v>
-      </c>
-      <c r="J80" t="n">
-        <v>1948759838.463592</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3989079099.516871</v>
+        <v>3352775049.442382</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09451257437625754</v>
+        <v>0.1336578873738819</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02805824412796856</v>
+        <v>0.02168125089074743</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>20</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1994539512.434608</v>
       </c>
     </row>
     <row r="82">
@@ -3216,22 +2726,16 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5644862122.70715</v>
+        <v>3726471406.284426</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1507668976743919</v>
+        <v>0.1696498365485144</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01986123001509775</v>
+        <v>0.02029923768161028</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>31</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2822431009.172217</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1702533684.135443</v>
+        <v>2427098314.939316</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1512733409380772</v>
+        <v>0.1324608308178748</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0349513270312436</v>
+        <v>0.0434388343140148</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>851266790.3070542</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2199937887.744437</v>
+        <v>2171869278.158427</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1194609185029953</v>
+        <v>0.09037740229388119</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04645290313072271</v>
+        <v>0.03479725993109792</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1099968919.514146</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3588816671.182148</v>
+        <v>3223669480.321855</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1424064478003123</v>
+        <v>0.131003319747953</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05543116098762135</v>
+        <v>0.05461736822140632</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>31</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1794408460.658412</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3352,22 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2408427718.84262</v>
+        <v>2211466744.508955</v>
       </c>
       <c r="F86" t="n">
-        <v>0.119136714440912</v>
+        <v>0.1188093477634191</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02520137724964406</v>
+        <v>0.0246311672452223</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>7</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1204213943.756877</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1402784921.861549</v>
+        <v>977955868.4719969</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1382426537610959</v>
+        <v>0.1865434881098466</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03111399786528199</v>
+        <v>0.03936640582304969</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>701392568.4263431</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2963257655.100694</v>
+        <v>3437409640.328715</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1663599473574295</v>
+        <v>0.1475880179949399</v>
       </c>
       <c r="G88" t="n">
-        <v>0.033781990186864</v>
+        <v>0.02820040565919119</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>31</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1481628854.275434</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2566231755.024667</v>
+        <v>2213240601.566998</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1312092416203869</v>
+        <v>0.1449706918228885</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03855102385658873</v>
+        <v>0.04154514266624989</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>27</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1283115947.339337</v>
       </c>
     </row>
     <row r="90">
@@ -3488,22 +2950,16 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1750723453.350737</v>
+        <v>1913691106.58296</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1312221878024575</v>
+        <v>0.0893364172245394</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04747619698439957</v>
+        <v>0.04800018512030008</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>875361751.2128559</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2014736443.959965</v>
+        <v>1976199995.250311</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1856710380976818</v>
+        <v>0.1216098189722046</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05016540822570965</v>
+        <v>0.0549284380195727</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>1007368192.205561</v>
       </c>
     </row>
     <row r="92">
@@ -3556,22 +3006,16 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2392505265.826666</v>
+        <v>2314791069.015171</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0875913706613131</v>
+        <v>0.07660041076242753</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02936498967887337</v>
+        <v>0.02972445546215086</v>
       </c>
       <c r="H92" t="b">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>17</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1196252608.653355</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4162879621.89681</v>
+        <v>3689133574.468375</v>
       </c>
       <c r="F93" t="n">
-        <v>0.125887033844621</v>
+        <v>0.1393360991475977</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04369640109419959</v>
+        <v>0.03662716834750324</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>24</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2081439800.967984</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2254130334.883765</v>
+        <v>2373434419.377315</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1609452260763462</v>
+        <v>0.1652561739528669</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04046200435410082</v>
+        <v>0.03016288759309705</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1127065198.766519</v>
       </c>
     </row>
     <row r="95">
@@ -3658,22 +3090,16 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2750806452.628203</v>
+        <v>2582334659.982458</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1365680926723218</v>
+        <v>0.1376940963311071</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0350483492327197</v>
+        <v>0.05307410635754571</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>20</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1375403244.109737</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1579433450.258434</v>
+        <v>2121549025.800697</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1299884209159945</v>
+        <v>0.09036123378090649</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04515628478931789</v>
+        <v>0.03042492095752691</v>
       </c>
       <c r="H96" t="b">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>789716756.9231026</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -3726,22 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3776660115.624156</v>
+        <v>4520304862.515969</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1724446233797529</v>
+        <v>0.1751569583225351</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02874247075844837</v>
+        <v>0.0180483192306201</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>26</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1888330096.144223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2620206926.261498</v>
+        <v>2403089266.819654</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1133514210225776</v>
+        <v>0.08717779969786241</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02261026738720522</v>
+        <v>0.02295914145664913</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>22</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1310103421.983516</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2526515834.504136</v>
+        <v>2369452065.95138</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1054264087935498</v>
+        <v>0.1353865838470716</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03414094867050171</v>
+        <v>0.02697335511952679</v>
       </c>
       <c r="H99" t="b">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>25</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1263257868.785943</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4651239161.736334</v>
+        <v>4348987268.086455</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1731417896080247</v>
+        <v>0.1767675510569168</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01806090392492488</v>
+        <v>0.02815815106298828</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>25</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2325619703.444464</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2447536332.302983</v>
+        <v>3599222526.728056</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1916843748114639</v>
+        <v>0.1533121236970137</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04135670455393437</v>
+        <v>0.05099813897325275</v>
       </c>
       <c r="H101" t="b">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>35</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1223768182.133929</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_82.xlsx
+++ b/output/fit_clients/fit_round_82.xlsx
@@ -486,16 +486,16 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1883303872.718968</v>
+        <v>1616173350.305067</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07231610757778774</v>
+        <v>0.08013436060020801</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03766158052098687</v>
+        <v>0.03182644519986849</v>
       </c>
       <c r="H2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2150219927.611921</v>
+        <v>1947432134.81775</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1467863208666138</v>
+        <v>0.1276473049778555</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04444606063350214</v>
+        <v>0.04070379606875474</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,22 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5019016090.248013</v>
+        <v>4935211154.429163</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1287728223030561</v>
+        <v>0.1215004962874877</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02605806432538713</v>
+        <v>0.02957495888027559</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -570,16 +570,16 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4235648819.054961</v>
+        <v>4136169528.776373</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09674745016725578</v>
+        <v>0.07595714506743921</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04428525277818286</v>
+        <v>0.04299024801398049</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1732860423.512671</v>
+        <v>2365241683.734135</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1299279023191553</v>
+        <v>0.1319203207256022</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04608603318669111</v>
+        <v>0.0450812105481761</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2323685937.460888</v>
+        <v>2007539505.270151</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09954499169719613</v>
+        <v>0.0731100319738525</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04534512929230462</v>
+        <v>0.03877974038247534</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,22 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3480732892.526174</v>
+        <v>2784432412.014131</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2067160516520609</v>
+        <v>0.1934414375579771</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03088355721216084</v>
+        <v>0.0226957107138149</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -676,22 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1746249108.521084</v>
+        <v>1457460145.692675</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1720683985434506</v>
+        <v>0.136810626819073</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02520727336956853</v>
+        <v>0.03705843105569109</v>
       </c>
       <c r="H9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5049195684.287127</v>
+        <v>3767406958.66733</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1643122875186861</v>
+        <v>0.1790202947859079</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04343119712648847</v>
+        <v>0.03702485482748753</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2975533768.90312</v>
+        <v>3067424033.40974</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1555201195515641</v>
+        <v>0.1497175175329699</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03032291112684066</v>
+        <v>0.04245987307948514</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2722671380.9219</v>
+        <v>2788560841.646769</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1383872425234754</v>
+        <v>0.1726505832493151</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0455756223965392</v>
+        <v>0.03680607881166924</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3267802783.306196</v>
+        <v>3995391941.733727</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09064796181232568</v>
+        <v>0.07673994403649873</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02335891488298178</v>
+        <v>0.02083346933841206</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -822,16 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3714890207.492464</v>
+        <v>3085717505.456577</v>
       </c>
       <c r="F14" t="n">
-        <v>0.12089894396631</v>
+        <v>0.1596126362033452</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02781297884430203</v>
+        <v>0.04430946194544367</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1731248131.010033</v>
+        <v>1274378630.132649</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09743463667417214</v>
+        <v>0.1002549063016854</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03204584392283721</v>
+        <v>0.04092872684299959</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1884652163.025082</v>
+        <v>1898297552.024829</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07768118822279103</v>
+        <v>0.1145542033499347</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04517087807818922</v>
+        <v>0.03641286856627552</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3430262248.669412</v>
+        <v>4001890263.979701</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1552121654543479</v>
+        <v>0.172511403170416</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03613937945323239</v>
+        <v>0.05323526489511413</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3091658260.531629</v>
+        <v>2591217243.417924</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1211550139328754</v>
+        <v>0.1182552338695415</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03329038088271392</v>
+        <v>0.02940700485041322</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1073523958.763612</v>
+        <v>832566997.0747365</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1917299633492565</v>
+        <v>0.1297679395068291</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02492914118340962</v>
+        <v>0.02234273902914525</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2654472824.105579</v>
+        <v>2669767838.50887</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1429377346086977</v>
+        <v>0.1141974792575928</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02779895811647333</v>
+        <v>0.0294151039530878</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2374023437.460107</v>
+        <v>2007614313.41735</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07600179093160717</v>
+        <v>0.09989069676175474</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03694346002304818</v>
+        <v>0.03433010804797405</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1046,13 +1046,13 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3784649854.956593</v>
+        <v>4048976830.63988</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1319396556438266</v>
+        <v>0.1114516061183507</v>
       </c>
       <c r="G22" t="n">
-        <v>0.050485673047015</v>
+        <v>0.04069278622711709</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1131492365.697351</v>
+        <v>942942139.4433262</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1335591962499347</v>
+        <v>0.1272218718465555</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04465831486907963</v>
+        <v>0.04785228034247658</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2907119063.094555</v>
+        <v>3280472100.794545</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1252052846635022</v>
+        <v>0.1497990061307174</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02764525714666627</v>
+        <v>0.0297110063246748</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1130,13 +1130,13 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1375642297.958638</v>
+        <v>1325385161.320301</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09837270846310109</v>
+        <v>0.1141404888306095</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02075545084433072</v>
+        <v>0.02604097370580746</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1110120419.754742</v>
+        <v>1245798248.993839</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1130411000477319</v>
+        <v>0.1120343559858218</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03592819753116164</v>
+        <v>0.02831157184477586</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4573945455.965478</v>
+        <v>4688225972.15361</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1402244505954374</v>
+        <v>0.134585662474731</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02504263178416884</v>
+        <v>0.02210163280939371</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2776957756.69634</v>
+        <v>3082570796.8639</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09945262281931075</v>
+        <v>0.09921064873593705</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03051966956557857</v>
+        <v>0.04657788201004523</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4837908625.067807</v>
+        <v>5092989711.106491</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1188813457525464</v>
+        <v>0.09812216138473517</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03472074188770489</v>
+        <v>0.04564342828767033</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2093992111.997074</v>
+        <v>2410126622.252097</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1397212512952289</v>
+        <v>0.1378238136693035</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02633327398866607</v>
+        <v>0.03912227634488504</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>925137347.5971525</v>
+        <v>1398918015.600258</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0777481172167438</v>
+        <v>0.1098373985040397</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03260017986768345</v>
+        <v>0.04035869275902529</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1318935499.154186</v>
+        <v>1243068569.844734</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08380136800755461</v>
+        <v>0.08589068955225157</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0238067575577767</v>
+        <v>0.02952717802887585</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2920264584.623113</v>
+        <v>2433385173.862621</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1965557346064644</v>
+        <v>0.1797495064710306</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04165172473490322</v>
+        <v>0.0492032552448927</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1090322369.433625</v>
+        <v>1569330767.094454</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09216829231670297</v>
+        <v>0.104608057619961</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02235178700917582</v>
+        <v>0.02333639941657609</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1410,13 +1410,13 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1001373124.813102</v>
+        <v>1302411176.945596</v>
       </c>
       <c r="F35" t="n">
-        <v>0.109888462129902</v>
+        <v>0.08375586618146971</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04305384329464915</v>
+        <v>0.03435187938441803</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2236591125.56468</v>
+        <v>2238486487.222874</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1248580009495131</v>
+        <v>0.1304130980455542</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0234998412263715</v>
+        <v>0.02295230198804631</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2793993420.429009</v>
+        <v>2606362937.74341</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08489024606203266</v>
+        <v>0.1104515494504959</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04126936698915658</v>
+        <v>0.04075053078831081</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1750230256.899152</v>
+        <v>1770748170.689389</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09386803594674584</v>
+        <v>0.09523869138636612</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03867785917153565</v>
+        <v>0.03813461298295695</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1990934858.265175</v>
+        <v>2085575274.126716</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1227631932835439</v>
+        <v>0.1410486353869657</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02398031932771138</v>
+        <v>0.02216720777813456</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1515481532.870343</v>
+        <v>1498647926.011566</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1072035455197065</v>
+        <v>0.1133743393647207</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05431073883557901</v>
+        <v>0.05616760736863437</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2449976480.947062</v>
+        <v>2437506215.006934</v>
       </c>
       <c r="F41" t="n">
-        <v>0.130613648946422</v>
+        <v>0.1425814630331974</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03095909446977728</v>
+        <v>0.03509546495910336</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2619142081.00031</v>
+        <v>2622130192.305027</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1175330770310786</v>
+        <v>0.07899737867482019</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04257954276496467</v>
+        <v>0.03985495496317243</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1891596230.696904</v>
+        <v>2409867238.70749</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1811403051290012</v>
+        <v>0.1270326447377199</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01819402473677949</v>
+        <v>0.02265838950270488</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,22 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1482962020.924832</v>
+        <v>2014877026.891693</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1003187654285933</v>
+        <v>0.0706881443283517</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03566320875452687</v>
+        <v>0.03226905786810144</v>
       </c>
       <c r="H44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1684,22 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2416369257.8989</v>
+        <v>2084250994.52018</v>
       </c>
       <c r="F45" t="n">
-        <v>0.150445780599844</v>
+        <v>0.1664643047298334</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04135677804099657</v>
+        <v>0.04929183495811495</v>
       </c>
       <c r="H45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1712,19 +1712,19 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5226916337.52161</v>
+        <v>3631161841.005365</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1240055361693053</v>
+        <v>0.143484316864797</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04970468519563032</v>
+        <v>0.04373146862705167</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3540454668.195072</v>
+        <v>3320301515.807916</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1351185586184197</v>
+        <v>0.1623538042992567</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04260093193456065</v>
+        <v>0.0394793508020551</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3345549468.918349</v>
+        <v>3353143041.84789</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1063320327072079</v>
+        <v>0.06900521970808407</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03207165648319479</v>
+        <v>0.03425037760496362</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1310524173.387658</v>
+        <v>1830283776.878005</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1437924749715003</v>
+        <v>0.1867125275404908</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03464864221862473</v>
+        <v>0.03518909607970729</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4011075683.590083</v>
+        <v>2620615260.008418</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1246395382291619</v>
+        <v>0.1251724016137603</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05115477688106133</v>
+        <v>0.03289444567965483</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1064094408.918527</v>
+        <v>1018124198.898342</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1798429730547892</v>
+        <v>0.1763951494324902</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04465309124414355</v>
+        <v>0.05196427189717556</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1886,13 +1886,13 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3544945050.461991</v>
+        <v>3290208658.767666</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1080251612558592</v>
+        <v>0.1278240350765167</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04533987309706689</v>
+        <v>0.05856588091996016</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2368918103.74012</v>
+        <v>2798248098.467422</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1547064665067316</v>
+        <v>0.1349640002314133</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0306721391273933</v>
+        <v>0.03492177242242541</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4499814403.068151</v>
+        <v>4674785336.651939</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1372398406036055</v>
+        <v>0.116087724930002</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03413751283369209</v>
+        <v>0.03297248958216601</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1970,16 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4065294068.091131</v>
+        <v>4146237589.187764</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1470084675812557</v>
+        <v>0.187288663823602</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02659785987530106</v>
+        <v>0.02771299156424085</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1998,13 +1998,13 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1458072539.002268</v>
+        <v>1166314440.004786</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1004417385589286</v>
+        <v>0.1201189296916445</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04681987075681714</v>
+        <v>0.04864689279794941</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,22 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3523773134.091571</v>
+        <v>4362877523.458556</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1706796837300767</v>
+        <v>0.1196021703233829</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02566371829137883</v>
+        <v>0.01710681881596214</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1587426519.529765</v>
+        <v>1870156548.002355</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1992021853056486</v>
+        <v>0.177758543082547</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03256165977920353</v>
+        <v>0.02967600005232766</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3542640277.638744</v>
+        <v>3943179357.533755</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09077033920213941</v>
+        <v>0.1248476769345732</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03878535630477321</v>
+        <v>0.03509724682341693</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2755920250.466245</v>
+        <v>3385379017.600842</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1644281834364412</v>
+        <v>0.1581875938100384</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02578488956803435</v>
+        <v>0.02337487652797436</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3206469285.600075</v>
+        <v>2627148045.81982</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1553335912987182</v>
+        <v>0.1656368571450504</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02810472012511845</v>
+        <v>0.02370646238082143</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1445341191.114007</v>
+        <v>1536287043.1838</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1895523053749379</v>
+        <v>0.1337368417891545</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04397482788670729</v>
+        <v>0.03846822611357086</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,19 +2188,19 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4551367744.84847</v>
+        <v>3702162544.801187</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09638260121146751</v>
+        <v>0.1020758076136502</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03945852917238394</v>
+        <v>0.04552252613008961</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4171292801.842545</v>
+        <v>4965467334.629622</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1567780212298642</v>
+        <v>0.1721426816443166</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02596664841620507</v>
+        <v>0.02601085462851246</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4067383311.402282</v>
+        <v>4806402374.333809</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1506512671648121</v>
+        <v>0.1503501209549376</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02596060892539069</v>
+        <v>0.02670990220417011</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2278,16 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5643724622.928659</v>
+        <v>4213717972.194877</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1217360094375147</v>
+        <v>0.1388286596651581</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03112922680453753</v>
+        <v>0.04273148954067013</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2739287534.441913</v>
+        <v>2880191946.849879</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08185083627790725</v>
+        <v>0.06532674582799551</v>
       </c>
       <c r="G67" t="n">
-        <v>0.05054624643078325</v>
+        <v>0.0368995429950686</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5869050864.577399</v>
+        <v>5342125827.725803</v>
       </c>
       <c r="F68" t="n">
-        <v>0.132045038795194</v>
+        <v>0.1417553835790232</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03515685775530029</v>
+        <v>0.03252753700111728</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1872216179.879097</v>
+        <v>2137524003.524013</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1409583174709481</v>
+        <v>0.1277165180138571</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05225361825147554</v>
+        <v>0.05295426883966153</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2390,13 +2390,13 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2993068945.290006</v>
+        <v>2490246002.490202</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1030893672132442</v>
+        <v>0.06391486810723154</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04025848010932759</v>
+        <v>0.04033696386925129</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2418,13 +2418,13 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4928300031.361227</v>
+        <v>4039999368.248253</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1688314059809701</v>
+        <v>0.1831640186771133</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02589368817238075</v>
+        <v>0.03056259236213935</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
@@ -2446,13 +2446,13 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1523034345.118854</v>
+        <v>1872008737.054312</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09152967308597022</v>
+        <v>0.1084276837608608</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04848330052718812</v>
+        <v>0.04463043161638416</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2606127476.427576</v>
+        <v>2760875425.152648</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08233150428556142</v>
+        <v>0.09843528759531779</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05148362926649356</v>
+        <v>0.05119846625342225</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2439061456.023487</v>
+        <v>3200427755.537768</v>
       </c>
       <c r="F74" t="n">
-        <v>0.160554523761663</v>
+        <v>0.1624589717718999</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03125717780988508</v>
+        <v>0.03232364320477595</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2530,13 +2530,13 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2249079813.441583</v>
+        <v>1724077460.28002</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1122895559515937</v>
+        <v>0.1545882668866771</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02718348735694471</v>
+        <v>0.02498249683833147</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,19 +2552,19 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4427717197.434367</v>
+        <v>3731405405.261235</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09973389571034852</v>
+        <v>0.1247239212078283</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03339053829690378</v>
+        <v>0.02408912593316091</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
@@ -2586,16 +2586,16 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2118913654.238944</v>
+        <v>1893135806.610624</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1484743468395596</v>
+        <v>0.165271564898801</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02572120233283368</v>
+        <v>0.02920200193938022</v>
       </c>
       <c r="H77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3523599942.417423</v>
+        <v>4422876698.696552</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1095974336798664</v>
+        <v>0.08848932179476211</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04997040645780263</v>
+        <v>0.0486257307853486</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,22 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1674563176.655828</v>
+        <v>1157735959.513773</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1081850337398983</v>
+        <v>0.1696932688655617</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03512110108506868</v>
+        <v>0.0327869104227254</v>
       </c>
       <c r="H79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5524995674.210943</v>
+        <v>4179200937.958197</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0712690780686205</v>
+        <v>0.087764187461111</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02851902678220549</v>
+        <v>0.02418524616198709</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3352775049.442382</v>
+        <v>3596911632.062511</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1336578873738819</v>
+        <v>0.1039301498505512</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02168125089074743</v>
+        <v>0.02566582905413392</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3726471406.284426</v>
+        <v>3507795323.13732</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1696498365485144</v>
+        <v>0.1874843931961272</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02029923768161028</v>
+        <v>0.02897665492231844</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2427098314.939316</v>
+        <v>2082113074.914625</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1324608308178748</v>
+        <v>0.1111714113707997</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0434388343140148</v>
+        <v>0.03204026610948636</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2782,13 +2782,13 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2171869278.158427</v>
+        <v>2576237547.245985</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09037740229388119</v>
+        <v>0.07906045823709437</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03479725993109792</v>
+        <v>0.04391391737505784</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3223669480.321855</v>
+        <v>3485614539.560425</v>
       </c>
       <c r="F85" t="n">
-        <v>0.131003319747953</v>
+        <v>0.1551898832303399</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05461736822140632</v>
+        <v>0.03550264131065202</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2211466744.508955</v>
+        <v>2060651045.032022</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1188093477634191</v>
+        <v>0.1547415737501237</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0246311672452223</v>
+        <v>0.02621933962570589</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>977955868.4719969</v>
+        <v>1300467127.719822</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1865434881098466</v>
+        <v>0.1246290818928399</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03936640582304969</v>
+        <v>0.0315880248437321</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3437409640.328715</v>
+        <v>3094024754.993513</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1475880179949399</v>
+        <v>0.109191855724441</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02820040565919119</v>
+        <v>0.02631031543896626</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2213240601.566998</v>
+        <v>3340508544.705822</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1449706918228885</v>
+        <v>0.1239711056164116</v>
       </c>
       <c r="G89" t="n">
-        <v>0.04154514266624989</v>
+        <v>0.03566050247303983</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1913691106.58296</v>
+        <v>2039631750.26789</v>
       </c>
       <c r="F90" t="n">
-        <v>0.0893364172245394</v>
+        <v>0.08497981990958084</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04800018512030008</v>
+        <v>0.03915429611690151</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1976199995.250311</v>
+        <v>1802004177.439016</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1216098189722046</v>
+        <v>0.1309749386691453</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0549284380195727</v>
+        <v>0.04434869231037099</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,22 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2314791069.015171</v>
+        <v>2206390651.561623</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07660041076242753</v>
+        <v>0.06675426390164935</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02972445546215086</v>
+        <v>0.02959794956615982</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3689133574.468375</v>
+        <v>3086252365.603572</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1393360991475977</v>
+        <v>0.1288220332659265</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03662716834750324</v>
+        <v>0.03732430091664089</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2373434419.377315</v>
+        <v>2310843583.255218</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1652561739528669</v>
+        <v>0.1517150136009455</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03016288759309705</v>
+        <v>0.03442371893433585</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2582334659.982458</v>
+        <v>2946448566.190895</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1376940963311071</v>
+        <v>0.1335877523724796</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05307410635754571</v>
+        <v>0.04931746562499422</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,22 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2121549025.800697</v>
+        <v>2339308952.198552</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09036123378090649</v>
+        <v>0.13868248489601</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03042492095752691</v>
+        <v>0.03701588546464709</v>
       </c>
       <c r="H96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -3146,16 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4520304862.515969</v>
+        <v>4009955435.10543</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1751569583225351</v>
+        <v>0.1604699360354284</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0180483192306201</v>
+        <v>0.02890223606574334</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2403089266.819654</v>
+        <v>2411200133.880814</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08717779969786241</v>
+        <v>0.1294078598170906</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02295914145664913</v>
+        <v>0.02386933232726739</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,22 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2369452065.95138</v>
+        <v>3037176480.715641</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1353865838470716</v>
+        <v>0.1136498198439212</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02697335511952679</v>
+        <v>0.02813126003668593</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3224,22 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4348987268.086455</v>
+        <v>4071643826.528055</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1767675510569168</v>
+        <v>0.1226849864826829</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02815815106298828</v>
+        <v>0.01813677563649891</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3258,16 +3258,16 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3599222526.728056</v>
+        <v>3494522587.115444</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1533121236970137</v>
+        <v>0.2079126722889029</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05099813897325275</v>
+        <v>0.0457595542636703</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_82.xlsx
+++ b/output/fit_clients/fit_round_82.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -486,17 +501,24 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1616173350.305067</v>
+        <v>1616159996.512629</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08013436060020801</v>
+        <v>0.09595482356836592</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03182644519986849</v>
+        <v>0.03834101712669422</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1947432134.81775</v>
+        <v>2576179058.239776</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1276473049778555</v>
+        <v>0.1572496064294661</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04070379606875474</v>
+        <v>0.03636763786394303</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4935211154.429163</v>
+        <v>3765061541.51973</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1215004962874877</v>
+        <v>0.1572916765089724</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02957495888027559</v>
+        <v>0.02831352106081911</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>53</v>
+      </c>
+      <c r="J4" t="n">
+        <v>81</v>
+      </c>
+      <c r="K4" t="n">
+        <v>157.7098143028194</v>
       </c>
     </row>
     <row r="5">
@@ -564,23 +602,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4136169528.776373</v>
+        <v>2818128729.030154</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07595714506743921</v>
+        <v>0.08599395645816264</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04299024801398049</v>
+        <v>0.03104114622706816</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
+      <c r="I5" t="n">
+        <v>36</v>
+      </c>
+      <c r="J5" t="n">
+        <v>80</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2365241683.734135</v>
+        <v>2436328845.517582</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1319203207256022</v>
+        <v>0.1341627350973534</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0450812105481761</v>
+        <v>0.05199550289228223</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2007539505.270151</v>
+        <v>2043228147.473824</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0731100319738525</v>
+        <v>0.0628336968678118</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03877974038247534</v>
+        <v>0.04412124966256681</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,22 +707,31 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2784432412.014131</v>
+        <v>3693635171.039316</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1934414375579771</v>
+        <v>0.148738681032807</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0226957107138149</v>
+        <v>0.0321645786478687</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>21</v>
+      </c>
+      <c r="J8" t="n">
+        <v>81</v>
+      </c>
+      <c r="K8" t="n">
+        <v>149.3853080983193</v>
       </c>
     </row>
     <row r="9">
@@ -676,23 +744,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1457460145.692675</v>
+        <v>1662140943.725576</v>
       </c>
       <c r="F9" t="n">
-        <v>0.136810626819073</v>
+        <v>0.1760063746435343</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03705843105569109</v>
+        <v>0.03253099684336491</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +779,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3767406958.66733</v>
+        <v>3965150480.581517</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1790202947859079</v>
+        <v>0.168199195235916</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03702485482748753</v>
+        <v>0.04336804059715871</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>76</v>
+      </c>
+      <c r="J10" t="n">
+        <v>82</v>
+      </c>
+      <c r="K10" t="n">
+        <v>195.1852967797127</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +816,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3067424033.40974</v>
+        <v>3692480452.925967</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1497175175329699</v>
+        <v>0.188070663536804</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04245987307948514</v>
+        <v>0.04746576711048656</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>34</v>
+      </c>
+      <c r="J11" t="n">
+        <v>82</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -766,17 +857,24 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2788560841.646769</v>
+        <v>3013024779.394838</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1726505832493151</v>
+        <v>0.1300154200545623</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03680607881166924</v>
+        <v>0.0440988058606043</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +886,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3995391941.733727</v>
+        <v>4171120103.561192</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07673994403649873</v>
+        <v>0.08678232903210782</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02083346933841206</v>
+        <v>0.02433423674875062</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>42</v>
+      </c>
+      <c r="J13" t="n">
+        <v>81</v>
+      </c>
+      <c r="K13" t="n">
+        <v>173.670664953788</v>
       </c>
     </row>
     <row r="14">
@@ -816,23 +923,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3085717505.456577</v>
+        <v>2612769318.501581</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1596126362033452</v>
+        <v>0.1285825176313086</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04430946194544367</v>
+        <v>0.04260691514358095</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>16</v>
+      </c>
+      <c r="J14" t="n">
+        <v>79</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +958,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1274378630.132649</v>
+        <v>1795279720.626382</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1002549063016854</v>
+        <v>0.09308543220632756</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04092872684299959</v>
+        <v>0.03342361970219846</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +993,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1898297552.024829</v>
+        <v>2167629896.836651</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1145542033499347</v>
+        <v>0.1137801527904653</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03641286856627552</v>
+        <v>0.03243213772620974</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1028,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4001890263.979701</v>
+        <v>5066562412.617694</v>
       </c>
       <c r="F17" t="n">
-        <v>0.172511403170416</v>
+        <v>0.1638507936680826</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05323526489511413</v>
+        <v>0.03207055480236203</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>39</v>
+      </c>
+      <c r="J17" t="n">
+        <v>82</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -934,17 +1069,24 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2591217243.417924</v>
+        <v>3582315378.277858</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1182552338695415</v>
+        <v>0.1610026174043196</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02940700485041322</v>
+        <v>0.03390854837143935</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>20</v>
+      </c>
+      <c r="J18" t="n">
+        <v>82</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -962,17 +1104,24 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>832566997.0747365</v>
+        <v>1109833401.718659</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1297679395068291</v>
+        <v>0.1530265346778774</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02234273902914525</v>
+        <v>0.0199465614475031</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1133,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2669767838.50887</v>
+        <v>2269219277.85134</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1141974792575928</v>
+        <v>0.1549945811939872</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0294151039530878</v>
+        <v>0.02550222634008233</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1168,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2007614313.41735</v>
+        <v>1914991562.639813</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09989069676175474</v>
+        <v>0.08325362372800922</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03433010804797405</v>
+        <v>0.02803398463872706</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1203,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>4048976830.63988</v>
+        <v>3427774368.113571</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1114516061183507</v>
+        <v>0.1188182524949404</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04069278622711709</v>
+        <v>0.03620508215433987</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>20</v>
+      </c>
+      <c r="J22" t="n">
+        <v>75</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1238,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>942942139.4433262</v>
+        <v>1363072051.968905</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1272218718465555</v>
+        <v>0.1862589118351921</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04785228034247658</v>
+        <v>0.03365709094779146</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1273,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3280472100.794545</v>
+        <v>3490136273.30861</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1497990061307174</v>
+        <v>0.1276551096024992</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0297110063246748</v>
+        <v>0.02917268101905479</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
+      <c r="I24" t="n">
+        <v>26</v>
+      </c>
+      <c r="J24" t="n">
+        <v>82</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1308,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1325385161.320301</v>
+        <v>1367297702.507766</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1141404888306095</v>
+        <v>0.1115246226760774</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02604097370580746</v>
+        <v>0.02348278970418587</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1158,17 +1349,24 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1245798248.993839</v>
+        <v>1028993282.758517</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1120343559858218</v>
+        <v>0.08817081862639317</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02831157184477586</v>
+        <v>0.03142161105757468</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1186,16 +1384,25 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4688225972.15361</v>
+        <v>4487431903.904993</v>
       </c>
       <c r="F27" t="n">
-        <v>0.134585662474731</v>
+        <v>0.1357119929191505</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02210163280939371</v>
+        <v>0.02140607032609633</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>33</v>
+      </c>
+      <c r="J27" t="n">
+        <v>81</v>
+      </c>
+      <c r="K27" t="n">
+        <v>148.4531788767037</v>
       </c>
     </row>
     <row r="28">
@@ -1208,23 +1415,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3082570796.8639</v>
+        <v>2356622445.030235</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09921064873593705</v>
+        <v>0.1237533575274959</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04657788201004523</v>
+        <v>0.03304044150833511</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>21</v>
+      </c>
+      <c r="J28" t="n">
+        <v>78</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1450,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5092989711.106491</v>
+        <v>4431422530.814107</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09812216138473517</v>
+        <v>0.1063641844729737</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04564342828767033</v>
+        <v>0.0425863056368559</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>76</v>
+      </c>
+      <c r="J29" t="n">
+        <v>82</v>
+      </c>
+      <c r="K29" t="n">
+        <v>207.5976412434416</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1487,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2410126622.252097</v>
+        <v>2213472892.994732</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1378238136693035</v>
+        <v>0.1061658603577881</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03912227634488504</v>
+        <v>0.03583262756023244</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1298,17 +1528,24 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1398918015.600258</v>
+        <v>1279641838.833087</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1098373985040397</v>
+        <v>0.06896789494349348</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04035869275902529</v>
+        <v>0.03381682671585871</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1557,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1243068569.844734</v>
+        <v>1552378301.805531</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08589068955225157</v>
+        <v>0.09459997983557412</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02952717802887585</v>
+        <v>0.03450816330737305</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1592,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2433385173.862621</v>
+        <v>2745318747.243183</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1797495064710306</v>
+        <v>0.1542300001331246</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0492032552448927</v>
+        <v>0.04555495292055193</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1627,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1569330767.094454</v>
+        <v>1348740194.715969</v>
       </c>
       <c r="F34" t="n">
-        <v>0.104608057619961</v>
+        <v>0.09017261943780468</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02333639941657609</v>
+        <v>0.02799898603697202</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1662,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1302411176.945596</v>
+        <v>1273953865.30546</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08375586618146971</v>
+        <v>0.1142920767219582</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03435187938441803</v>
+        <v>0.03748611468144632</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1697,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2238486487.222874</v>
+        <v>2826003874.066525</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1304130980455542</v>
+        <v>0.1696259306359139</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02295230198804631</v>
+        <v>0.0194038634967083</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>2</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1732,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2606362937.74341</v>
+        <v>2303371516.090425</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1104515494504959</v>
+        <v>0.09504392311439887</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04075053078831081</v>
+        <v>0.02783813355104166</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1494,17 +1773,24 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1770748170.689389</v>
+        <v>1497318171.831823</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09523869138636612</v>
+        <v>0.1119590972633921</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03813461298295695</v>
+        <v>0.03378598678025503</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1802,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2085575274.126716</v>
+        <v>1817793269.879551</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1410486353869657</v>
+        <v>0.1826531181693736</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02216720777813456</v>
+        <v>0.03250958007059333</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1837,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1498647926.011566</v>
+        <v>1344897991.6161</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1133743393647207</v>
+        <v>0.1156342360988022</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05616760736863437</v>
+        <v>0.05220458743895058</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1872,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2437506215.006934</v>
+        <v>2130002572.734257</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1425814630331974</v>
+        <v>0.1547160232671948</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03509546495910336</v>
+        <v>0.03800569597874479</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,22 +1907,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2622130192.305027</v>
+        <v>3806225989.909981</v>
       </c>
       <c r="F42" t="n">
-        <v>0.07899737867482019</v>
+        <v>0.1152653453610312</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03985495496317243</v>
+        <v>0.03344658978413962</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>31</v>
+      </c>
+      <c r="J42" t="n">
+        <v>81</v>
+      </c>
+      <c r="K42" t="n">
+        <v>159.0157369544695</v>
       </c>
     </row>
     <row r="43">
@@ -1634,17 +1950,24 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2409867238.70749</v>
+        <v>3068339780.305505</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1270326447377199</v>
+        <v>0.1595695071717608</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02265838950270488</v>
+        <v>0.02042023774660616</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1979,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2014877026.891693</v>
+        <v>2100084176.242244</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0706881443283517</v>
+        <v>0.0637866536151796</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03226905786810144</v>
+        <v>0.02580872407841073</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2014,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2084250994.52018</v>
+        <v>1814352505.787797</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1664643047298334</v>
+        <v>0.1818745035822271</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04929183495811495</v>
+        <v>0.0489071342472538</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,23 +2049,30 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3631161841.005365</v>
+        <v>4727857186.51667</v>
       </c>
       <c r="F46" t="n">
-        <v>0.143484316864797</v>
+        <v>0.133581826260731</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04373146862705167</v>
+        <v>0.04230949857518556</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>47</v>
+      </c>
+      <c r="J46" t="n">
+        <v>82</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1740,22 +2084,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3320301515.807916</v>
+        <v>5039996564.241116</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1623538042992567</v>
+        <v>0.1296515933554233</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0394793508020551</v>
+        <v>0.04223007552663643</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>37</v>
+      </c>
+      <c r="J47" t="n">
+        <v>81</v>
+      </c>
+      <c r="K47" t="n">
+        <v>148.7222143004893</v>
       </c>
     </row>
     <row r="48">
@@ -1774,16 +2127,25 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3353143041.84789</v>
+        <v>4001578410.864132</v>
       </c>
       <c r="F48" t="n">
-        <v>0.06900521970808407</v>
+        <v>0.1077972814304248</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03425037760496362</v>
+        <v>0.02921150179797943</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>31</v>
+      </c>
+      <c r="J48" t="n">
+        <v>82</v>
+      </c>
+      <c r="K48" t="n">
+        <v>181.2937885839217</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2158,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1830283776.878005</v>
+        <v>1731205328.3781</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1867125275404908</v>
+        <v>0.1398873809500338</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03518909607970729</v>
+        <v>0.03827142342857062</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1830,17 +2199,24 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2620615260.008418</v>
+        <v>4212233923.906668</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1251724016137603</v>
+        <v>0.1686330502989857</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03289444567965483</v>
+        <v>0.04063251176670608</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>29</v>
+      </c>
+      <c r="J50" t="n">
+        <v>82</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2228,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1018124198.898342</v>
+        <v>1113975414.962711</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1763951494324902</v>
+        <v>0.1675709679427513</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05196427189717556</v>
+        <v>0.04671265528801664</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,23 +2263,30 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3290208658.767666</v>
+        <v>5310454362.012804</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1278240350765167</v>
+        <v>0.1305678168226146</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05856588091996016</v>
+        <v>0.06204517163961465</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>63</v>
+      </c>
+      <c r="J52" t="n">
+        <v>82</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,23 +2298,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2798248098.467422</v>
+        <v>3615745048.972551</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1349640002314133</v>
+        <v>0.1354954806672408</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03492177242242541</v>
+        <v>0.0274276371262019</v>
       </c>
       <c r="H53" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>8</v>
+      </c>
+      <c r="J53" t="n">
+        <v>82</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,23 +2333,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4674785336.651939</v>
+        <v>3333581611.651633</v>
       </c>
       <c r="F54" t="n">
-        <v>0.116087724930002</v>
+        <v>0.1676674792222412</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03297248958216601</v>
+        <v>0.05126074135908334</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>37</v>
+      </c>
+      <c r="J54" t="n">
+        <v>80</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,23 +2368,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4146237589.187764</v>
+        <v>4375372624.033298</v>
       </c>
       <c r="F55" t="n">
-        <v>0.187288663823602</v>
+        <v>0.1442629800865113</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02771299156424085</v>
+        <v>0.02275682948623513</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>37</v>
+      </c>
+      <c r="J55" t="n">
+        <v>82</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2403,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1166314440.004786</v>
+        <v>1241759099.966376</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1201189296916445</v>
+        <v>0.1007528436241735</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04864689279794941</v>
+        <v>0.03841810669512529</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,22 +2438,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4362877523.458556</v>
+        <v>2983582899.869049</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1196021703233829</v>
+        <v>0.1552383051935957</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01710681881596214</v>
+        <v>0.02756072818495624</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>30</v>
+      </c>
+      <c r="J57" t="n">
+        <v>81</v>
+      </c>
+      <c r="K57" t="n">
+        <v>94.76958383622448</v>
       </c>
     </row>
     <row r="58">
@@ -2048,23 +2475,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1870156548.002355</v>
+        <v>1309946752.559796</v>
       </c>
       <c r="F58" t="n">
-        <v>0.177758543082547</v>
+        <v>0.1956026118726313</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02967600005232766</v>
+        <v>0.0263463461300439</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2510,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3943179357.533755</v>
+        <v>4151402264.480878</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1248476769345732</v>
+        <v>0.1260063005359075</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03509724682341693</v>
+        <v>0.04665404754081473</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>40</v>
+      </c>
+      <c r="J59" t="n">
+        <v>81</v>
+      </c>
+      <c r="K59" t="n">
+        <v>159.6936651138562</v>
       </c>
     </row>
     <row r="60">
@@ -2104,23 +2547,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3385379017.600842</v>
+        <v>2727118026.435132</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1581875938100384</v>
+        <v>0.1427435603054979</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02337487652797436</v>
+        <v>0.02403566340415049</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>10</v>
+      </c>
+      <c r="J60" t="n">
+        <v>76</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2138,17 +2588,24 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2627148045.81982</v>
+        <v>2753602932.595498</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1656368571450504</v>
+        <v>0.1634132628912208</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02370646238082143</v>
+        <v>0.02889813979559091</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>1</v>
+      </c>
+      <c r="J61" t="n">
+        <v>79</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2617,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1536287043.1838</v>
+        <v>2053097151.722273</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1337368417891545</v>
+        <v>0.1313835150773633</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03846822611357086</v>
+        <v>0.03071091527857165</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2652,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3702162544.801187</v>
+        <v>5353078457.37058</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1020758076136502</v>
+        <v>0.09839749482594141</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04552252613008961</v>
+        <v>0.04212406207683069</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>40</v>
+      </c>
+      <c r="J63" t="n">
+        <v>82</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2222,17 +2693,24 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4965467334.629622</v>
+        <v>3747562242.162069</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1721426816443166</v>
+        <v>0.1710717942508057</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02601085462851246</v>
+        <v>0.03251347931992588</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>40</v>
+      </c>
+      <c r="J64" t="n">
+        <v>82</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,22 +2722,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4806402374.333809</v>
+        <v>5989273739.857211</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1503501209549376</v>
+        <v>0.1516933258478351</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02670990220417011</v>
+        <v>0.02745750119995721</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>66</v>
+      </c>
+      <c r="J65" t="n">
+        <v>82</v>
+      </c>
+      <c r="K65" t="n">
+        <v>179.5149169395575</v>
       </c>
     </row>
     <row r="66">
@@ -2272,23 +2759,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4213717972.194877</v>
+        <v>5705086271.446746</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1388286596651581</v>
+        <v>0.1419197230658187</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04273148954067013</v>
+        <v>0.05115570911379953</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>40</v>
+      </c>
+      <c r="J66" t="n">
+        <v>82</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2794,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2880191946.849879</v>
+        <v>2184470669.588782</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06532674582799551</v>
+        <v>0.08091456703278649</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0368995429950686</v>
+        <v>0.0353767146543469</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2829,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5342125827.725803</v>
+        <v>5958478751.32104</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1417553835790232</v>
+        <v>0.1515008321424643</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03252753700111728</v>
+        <v>0.03786485998853625</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>41</v>
+      </c>
+      <c r="J68" t="n">
+        <v>81</v>
+      </c>
+      <c r="K68" t="n">
+        <v>168.0629761295897</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2866,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2137524003.524013</v>
+        <v>1878790308.225291</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1277165180138571</v>
+        <v>0.1287018213168094</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05295426883966153</v>
+        <v>0.05944606597640261</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,22 +2901,31 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2490246002.490202</v>
+        <v>2442140483.95486</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06391486810723154</v>
+        <v>0.07047062659183549</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04033696386925129</v>
+        <v>0.04842461360463812</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>10</v>
+      </c>
+      <c r="J70" t="n">
+        <v>81</v>
+      </c>
+      <c r="K70" t="n">
+        <v>61.59646556236765</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2938,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4039999368.248253</v>
+        <v>5401023956.169192</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1831640186771133</v>
+        <v>0.1547179691991495</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03056259236213935</v>
+        <v>0.0249765614803131</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>68</v>
+      </c>
+      <c r="J71" t="n">
+        <v>82</v>
+      </c>
+      <c r="K71" t="n">
+        <v>182.7129608952665</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2975,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1872008737.054312</v>
+        <v>1913669391.985764</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1084276837608608</v>
+        <v>0.09095075893719665</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04463043161638416</v>
+        <v>0.03783661106118202</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3010,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2760875425.152648</v>
+        <v>2622103983.527493</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09843528759531779</v>
+        <v>0.06972864899357947</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05119846625342225</v>
+        <v>0.04280044837006972</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>6</v>
+      </c>
+      <c r="J73" t="n">
+        <v>71</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2502,17 +3051,24 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3200427755.537768</v>
+        <v>3661141643.481331</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1624589717718999</v>
+        <v>0.1379736075371902</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03232364320477595</v>
+        <v>0.02658185424588628</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>24</v>
+      </c>
+      <c r="J74" t="n">
+        <v>82</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3080,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1724077460.28002</v>
+        <v>1928050116.029815</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1545882668866771</v>
+        <v>0.1070917301823062</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02498249683833147</v>
+        <v>0.03454449074261098</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2558,16 +3121,25 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3731405405.261235</v>
+        <v>4578539183.719738</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1247239212078283</v>
+        <v>0.09344524718842163</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02408912593316091</v>
+        <v>0.02250300679424563</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>38</v>
+      </c>
+      <c r="J76" t="n">
+        <v>81</v>
+      </c>
+      <c r="K76" t="n">
+        <v>144.3258571418573</v>
       </c>
     </row>
     <row r="77">
@@ -2586,17 +3158,24 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1893135806.610624</v>
+        <v>2091155642.247287</v>
       </c>
       <c r="F77" t="n">
-        <v>0.165271564898801</v>
+        <v>0.169066180705399</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02920200193938022</v>
+        <v>0.03127445274588554</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3187,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4422876698.696552</v>
+        <v>3215628343.53971</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08848932179476211</v>
+        <v>0.0891751191274311</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0486257307853486</v>
+        <v>0.05498948818406665</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>39</v>
+      </c>
+      <c r="J78" t="n">
+        <v>80</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3222,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1157735959.513773</v>
+        <v>1505429465.267961</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1696932688655617</v>
+        <v>0.1556253313944409</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0327869104227254</v>
+        <v>0.03852931873074798</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3257,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4179200937.958197</v>
+        <v>3459604335.184292</v>
       </c>
       <c r="F80" t="n">
-        <v>0.087764187461111</v>
+        <v>0.1063239446105722</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02418524616198709</v>
+        <v>0.03031807972916872</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>39</v>
+      </c>
+      <c r="J80" t="n">
+        <v>80</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,22 +3292,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3596911632.062511</v>
+        <v>3342422158.835137</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1039301498505512</v>
+        <v>0.09142982673303214</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02566582905413392</v>
+        <v>0.02831751835654843</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>37</v>
+      </c>
+      <c r="J81" t="n">
+        <v>81</v>
+      </c>
+      <c r="K81" t="n">
+        <v>101.793642042739</v>
       </c>
     </row>
     <row r="82">
@@ -2720,23 +3329,30 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3507795323.13732</v>
+        <v>3750017124.849875</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1874843931961272</v>
+        <v>0.1361258878168916</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02897665492231844</v>
+        <v>0.01838190487589143</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>51</v>
+      </c>
+      <c r="J82" t="n">
+        <v>82</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2754,17 +3370,24 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2082113074.914625</v>
+        <v>1768058260.257767</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1111714113707997</v>
+        <v>0.1521906314819293</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03204026610948636</v>
+        <v>0.03462443521948877</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3399,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2576237547.245985</v>
+        <v>2211849629.967647</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07906045823709437</v>
+        <v>0.08017459047495934</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04391391737505784</v>
+        <v>0.03843267929094091</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3434,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3485614539.560425</v>
+        <v>2362162027.502515</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1551898832303399</v>
+        <v>0.1324147699146133</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03550264131065202</v>
+        <v>0.03730342461922752</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>14</v>
+      </c>
+      <c r="J85" t="n">
+        <v>80</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2838,17 +3475,24 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2060651045.032022</v>
+        <v>2612830313.554657</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1547415737501237</v>
+        <v>0.1267620377575058</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02621933962570589</v>
+        <v>0.0249163874190222</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3504,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1300467127.719822</v>
+        <v>1047047864.232158</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1246290818928399</v>
+        <v>0.1315619618143535</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0315880248437321</v>
+        <v>0.03714417941024996</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,22 +3539,31 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3094024754.993513</v>
+        <v>3385480392.637812</v>
       </c>
       <c r="F88" t="n">
-        <v>0.109191855724441</v>
+        <v>0.1345889080813</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02631031543896626</v>
+        <v>0.02816649484932705</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>11</v>
+      </c>
+      <c r="J88" t="n">
+        <v>81</v>
+      </c>
+      <c r="K88" t="n">
+        <v>134.5148391956097</v>
       </c>
     </row>
     <row r="89">
@@ -2916,23 +3576,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3340508544.705822</v>
+        <v>2732017489.344903</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1239711056164116</v>
+        <v>0.1587008826982169</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03566050247303983</v>
+        <v>0.040884009724931</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>9</v>
+      </c>
+      <c r="J89" t="n">
+        <v>79</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3611,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2039631750.26789</v>
+        <v>2072899441.575206</v>
       </c>
       <c r="F90" t="n">
-        <v>0.08497981990958084</v>
+        <v>0.1363183312340847</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03915429611690151</v>
+        <v>0.05374046241106599</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3646,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1802004177.439016</v>
+        <v>2043528620.906465</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1309749386691453</v>
+        <v>0.1200664297108977</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04434869231037099</v>
+        <v>0.05756915791414866</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3006,17 +3687,24 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2206390651.561623</v>
+        <v>2923252173.843082</v>
       </c>
       <c r="F92" t="n">
-        <v>0.06675426390164935</v>
+        <v>0.1092086841195381</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02959794956615982</v>
+        <v>0.04294717724862777</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3716,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3086252365.603572</v>
+        <v>4913437220.652368</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1288220332659265</v>
+        <v>0.1064606251960558</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03732430091664089</v>
+        <v>0.03411787358591939</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>37</v>
+      </c>
+      <c r="J93" t="n">
+        <v>81</v>
+      </c>
+      <c r="K93" t="n">
+        <v>164.0300996208976</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3753,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2310843583.255218</v>
+        <v>1605882081.029642</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1517150136009455</v>
+        <v>0.1609261159282821</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03442371893433585</v>
+        <v>0.03175818554617327</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3788,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2946448566.190895</v>
+        <v>2929875583.220225</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1335877523724796</v>
+        <v>0.116914152140784</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04931746562499422</v>
+        <v>0.03441189857212549</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>14</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3118,17 +3829,24 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2339308952.198552</v>
+        <v>2307583015.775228</v>
       </c>
       <c r="F96" t="n">
-        <v>0.13868248489601</v>
+        <v>0.1158089631183148</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03701588546464709</v>
+        <v>0.03663374823830302</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3146,17 +3864,24 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4009955435.10543</v>
+        <v>3346584534.858006</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1604699360354284</v>
+        <v>0.1254629770142114</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02890223606574334</v>
+        <v>0.01902956127692187</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>39</v>
+      </c>
+      <c r="J97" t="n">
+        <v>80</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,22 +3893,31 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2411200133.880814</v>
+        <v>3108662854.454788</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1294078598170906</v>
+        <v>0.1150538197717445</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02386933232726739</v>
+        <v>0.02675110611733281</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>17</v>
+      </c>
+      <c r="J98" t="n">
+        <v>81</v>
+      </c>
+      <c r="K98" t="n">
+        <v>94.19473797859661</v>
       </c>
     </row>
     <row r="99">
@@ -3202,17 +3936,24 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3037176480.715641</v>
+        <v>2880329229.851349</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1136498198439212</v>
+        <v>0.09520295726953887</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02813126003668593</v>
+        <v>0.0348303452053966</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>62</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4071643826.528055</v>
+        <v>4573466352.417712</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1226849864826829</v>
+        <v>0.168361952453075</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01813677563649891</v>
+        <v>0.02442527795556928</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>33</v>
+      </c>
+      <c r="J100" t="n">
+        <v>82</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3494522587.115444</v>
+        <v>2740236044.685421</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2079126722889029</v>
+        <v>0.145207606382228</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0457595542636703</v>
+        <v>0.04576758810413975</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>4</v>
+      </c>
+      <c r="J101" t="n">
+        <v>67</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
